--- a/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
+++ b/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1688501078" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1688501078" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1688501078" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1688501078"/>
+      <pm:revision xmlns:pm="smNativeData" day="1688516537" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1688516537" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1688516537" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1688516537"/>
       <pm:pdfExportOpt xmlns:pm="smNativeData" pagesRangeIndex="1" pagesSelectionIndex="0" qualityIndex="0" embedFonts="2" useJpegs="0" useSubsetFonts="1" useAlpha="1" relativeLinks="0" taggedPdf="1" pane="0" zoom="0" zoomScale="100" layout="0" includeDoc="0" viewFlags="0" openViewer="1" jpegQuality="90" flags="252" exportWsNames="1" name="C:\Users\Leonardo\Documents\Boletim de Medição - Roteiro de Testes - Configurações.pdf"/>
     </ext>
   </extLst>
@@ -52,7 +52,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -72,7 +72,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -97,7 +97,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -117,7 +117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -142,7 +142,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -164,7 +164,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -184,7 +184,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -206,7 +206,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -226,7 +226,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -251,7 +251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -271,7 +271,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -293,7 +293,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -313,7 +313,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -338,7 +338,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -358,7 +358,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -380,7 +380,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -400,7 +400,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -422,7 +422,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -442,7 +442,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -464,7 +464,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -484,7 +484,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -506,7 +506,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -526,7 +526,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -548,7 +548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -568,7 +568,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -590,7 +590,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -610,7 +610,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -632,7 +632,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -652,7 +652,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -674,7 +674,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -694,7 +694,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -722,7 +722,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -734,6 +734,9 @@
     </r>
   </si>
   <si>
+    <t>Pendente</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -744,7 +747,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -764,7 +767,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -786,7 +789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -806,7 +809,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -828,7 +831,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -848,7 +851,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -870,7 +873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -890,7 +893,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -915,7 +918,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -940,7 +943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -965,7 +968,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -990,7 +993,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1015,7 +1018,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1040,7 +1043,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1060,7 +1063,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1085,7 +1088,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1110,7 +1113,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1135,7 +1138,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1160,7 +1163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1185,7 +1188,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1210,7 +1213,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1235,7 +1238,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1255,7 +1258,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1280,7 +1283,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1305,7 +1308,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1333,7 +1336,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1353,7 +1356,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1373,7 +1376,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1395,7 +1398,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1415,7 +1418,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1437,7 +1440,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1457,7 +1460,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1479,7 +1482,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1499,7 +1502,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1524,7 +1527,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1549,7 +1552,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1574,7 +1577,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1594,7 +1597,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1619,7 +1622,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1644,7 +1647,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1669,7 +1672,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1694,7 +1697,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1719,7 +1722,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1747,7 +1750,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1775,7 +1778,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1800,7 +1803,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1825,7 +1828,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1850,7 +1853,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1870,7 +1873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1895,7 +1898,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1923,7 +1926,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1945,7 +1948,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1965,7 +1968,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1987,7 +1990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2007,7 +2010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2032,7 +2035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2052,7 +2055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2074,7 +2077,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2094,7 +2097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2116,7 +2119,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2136,7 +2139,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2161,7 +2164,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2186,7 +2189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2206,7 +2209,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2226,7 +2229,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2251,7 +2254,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2276,7 +2279,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2301,7 +2304,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2326,7 +2329,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2348,7 +2351,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2368,7 +2371,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2390,7 +2393,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2410,7 +2413,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2438,7 +2441,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2450,9 +2453,6 @@
     </r>
   </si>
   <si>
-    <t>Pendente</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Teste de entrada no campo de filtro de atividades: </t>
     </r>
@@ -2466,7 +2466,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2491,7 +2491,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2516,7 +2516,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2541,7 +2541,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2566,7 +2566,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2591,7 +2591,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2616,7 +2616,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2641,7 +2641,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2666,7 +2666,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2691,7 +2691,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2719,7 +2719,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2744,7 +2744,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2769,7 +2769,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2794,7 +2794,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2816,7 +2816,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2836,7 +2836,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2870,7 +2870,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2890,7 +2890,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2912,7 +2912,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2932,7 +2932,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2960,7 +2960,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2985,7 +2985,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3010,7 +3010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3035,7 +3035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3069,7 +3069,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3091,7 +3091,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3111,7 +3111,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3136,7 +3136,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3164,7 +3164,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3186,7 +3186,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3206,7 +3206,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3231,7 +3231,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3253,7 +3253,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3273,7 +3273,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3298,7 +3298,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3318,7 +3318,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3340,7 +3340,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3360,7 +3360,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3382,7 +3382,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3402,7 +3402,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3424,7 +3424,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3444,7 +3444,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3466,7 +3466,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3486,7 +3486,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3511,7 +3511,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3531,7 +3531,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3553,7 +3553,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3573,7 +3573,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3595,7 +3595,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3615,7 +3615,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3637,7 +3637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3657,7 +3657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3679,7 +3679,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3699,7 +3699,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688501078">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3733,7 +3733,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3749,7 +3749,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" fgClr="F3F3F3" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" fgClr="F3F3F3" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -3765,7 +3765,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3781,7 +3781,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" fgClr="007F00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" fgClr="007F00" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3797,7 +3797,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" fgClr="0000FF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" fgClr="0000FF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3813,7 +3813,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3828,7 +3828,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688501078" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3837,7 +3837,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3850,7 +3850,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688501078" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3861,7 +3861,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688501078" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3872,7 +3872,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688501078" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3883,7 +3883,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688501078" type="1" fgLvl="100" fgClr="00F7F7F7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00F7F7F7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3894,7 +3894,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688501078" type="1" fgLvl="100" fgClr="00CCCCCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00CCCCCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3905,13 +3905,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688501078" type="1" fgLvl="100" fgClr="00434343" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00434343" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -3927,7 +3938,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -3946,7 +3957,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -3965,7 +3976,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -3984,7 +3995,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -4003,7 +4014,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -4022,7 +4033,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -4041,7 +4052,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688501078"/>
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
         </ext>
       </extLst>
     </border>
@@ -4133,10 +4163,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1688501078" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1688516537" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1688501078" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1688516537" count="4">
         <pm:color name="Cor 24" rgb="F3F3F3"/>
         <pm:color name="Cor 25" rgb="434343"/>
         <pm:color name="Cor 26" rgb="F2F2F2"/>
@@ -4408,8 +4438,8 @@
   </sheetPr>
   <dimension ref="A1:G1158"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="B55" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.567568" defaultRowHeight="15.75" customHeight="1"/>
@@ -4419,24 +4449,18 @@
     <col min="5" max="5" width="38.144144" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2"/>
       <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2"/>
       <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
@@ -4674,8 +4698,8 @@
       <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>6</v>
+      <c r="E19" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
@@ -4685,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>6</v>
@@ -4698,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>6</v>
@@ -4711,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>6</v>
@@ -4724,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>6</v>
@@ -4737,7 +4761,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>6</v>
@@ -4750,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>6</v>
@@ -4763,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>6</v>
@@ -4776,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>6</v>
@@ -4789,7 +4813,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>6</v>
@@ -4800,13 +4824,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>6</v>
@@ -4819,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>6</v>
@@ -4832,7 +4856,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>6</v>
@@ -4845,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>6</v>
@@ -4858,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>6</v>
@@ -4871,7 +4895,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>6</v>
@@ -4884,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>6</v>
@@ -4895,13 +4919,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>6</v>
@@ -4914,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>6</v>
@@ -4927,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>6</v>
@@ -4940,7 +4964,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>6</v>
@@ -4953,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>6</v>
@@ -4966,7 +4990,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>6</v>
@@ -4980,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>6</v>
@@ -4992,13 +5016,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>6</v>
@@ -5011,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>6</v>
@@ -5024,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>6</v>
@@ -5037,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>6</v>
@@ -5050,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>6</v>
@@ -5063,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>6</v>
@@ -5076,7 +5100,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>6</v>
@@ -5089,7 +5113,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>6</v>
@@ -5100,16 +5124,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1">
@@ -5119,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>6</v>
@@ -5132,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>6</v>
@@ -5145,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>6</v>
@@ -5158,7 +5182,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>6</v>
@@ -5171,10 +5195,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1">
@@ -5184,10 +5208,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1">
@@ -5197,10 +5221,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1">
@@ -5208,13 +5232,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>6</v>
@@ -5227,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>6</v>
@@ -5240,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>6</v>
@@ -5253,10 +5277,10 @@
         <v>4</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1">
@@ -5266,7 +5290,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>6</v>
@@ -5279,10 +5303,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1">
@@ -5292,10 +5316,10 @@
         <v>7</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1">
@@ -5305,10 +5329,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12.75" customHeight="1">
@@ -5318,10 +5342,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12.75" customHeight="1">
@@ -5329,13 +5353,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>6</v>
@@ -5348,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>6</v>
@@ -5361,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>6</v>
@@ -5374,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>6</v>
@@ -5387,7 +5411,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>6</v>
@@ -5400,7 +5424,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>6</v>
@@ -5413,7 +5437,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>6</v>
@@ -5426,7 +5450,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>6</v>
@@ -5437,13 +5461,13 @@
         <v>11</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>6</v>
@@ -5456,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>6</v>
@@ -5469,10 +5493,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="12.75" customHeight="1">
@@ -5482,7 +5506,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>6</v>
@@ -5495,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>6</v>
@@ -5508,7 +5532,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>6</v>
@@ -5521,7 +5545,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>6</v>
@@ -5534,7 +5558,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>6</v>
@@ -5547,10 +5571,10 @@
         <v>9</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" customHeight="1">
@@ -5560,10 +5584,10 @@
         <v>10</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" customHeight="1">
@@ -5573,10 +5597,10 @@
         <v>11</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1">
@@ -5584,16 +5608,16 @@
         <v>12</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" customHeight="1">
@@ -5606,7 +5630,7 @@
         <v>88</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" customHeight="1">
@@ -5632,7 +5656,7 @@
         <v>90</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1">
@@ -5658,7 +5682,7 @@
         <v>92</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" customHeight="1">
@@ -5671,7 +5695,7 @@
         <v>93</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="12.75" customHeight="1">
@@ -5723,7 +5747,7 @@
         <v>97</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="12.75" customHeight="1">
@@ -5740,7 +5764,7 @@
         <v>99</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="12.75" customHeight="1">
@@ -5766,7 +5790,7 @@
         <v>101</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="12.75" customHeight="1">
@@ -5792,7 +5816,7 @@
         <v>103</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="12.75" customHeight="1">
@@ -5802,10 +5826,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="12.75" customHeight="1">
@@ -5819,10 +5843,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="12.75" customHeight="1">
@@ -5832,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E105" s="15" t="s">
         <v>6</v>
@@ -5845,10 +5869,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="12.75" customHeight="1">
@@ -5858,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>6</v>
@@ -5871,10 +5895,10 @@
         <v>5</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="12.75" customHeight="1">
@@ -5884,10 +5908,10 @@
         <v>6</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="12.75" customHeight="1">
@@ -5897,7 +5921,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>6</v>
@@ -5910,10 +5934,10 @@
         <v>8</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="12.75" customHeight="1">
@@ -5923,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>6</v>
@@ -5936,10 +5960,10 @@
         <v>10</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="12.75" customHeight="1">
@@ -5949,10 +5973,10 @@
         <v>11</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="12.75" customHeight="1">
@@ -5966,10 +5990,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="12.75" customHeight="1">
@@ -5995,7 +6019,7 @@
         <v>89</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="12.75" customHeight="1">
@@ -6021,7 +6045,7 @@
         <v>91</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="12.75" customHeight="1">
@@ -6034,7 +6058,7 @@
         <v>92</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="12.75" customHeight="1">
@@ -6047,7 +6071,7 @@
         <v>93</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="12.75" customHeight="1">
@@ -6073,7 +6097,7 @@
         <v>95</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="12.75" customHeight="1">
@@ -6086,7 +6110,7 @@
         <v>96</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="12.75" customHeight="1">
@@ -6099,7 +6123,7 @@
         <v>97</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12.75" customHeight="1">
@@ -6116,7 +6140,7 @@
         <v>99</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="12.75" customHeight="1">
@@ -6142,7 +6166,7 @@
         <v>101</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="12.75" customHeight="1">
@@ -6168,7 +6192,7 @@
         <v>103</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="12.75" customHeight="1">
@@ -6178,10 +6202,10 @@
         <v>6</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="12.75" customHeight="1">
@@ -6195,10 +6219,10 @@
         <v>1</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="12.75" customHeight="1">
@@ -6224,7 +6248,7 @@
         <v>109</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="12.75" customHeight="1">
@@ -6234,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135" s="15" t="s">
         <v>6</v>
@@ -6247,10 +6271,10 @@
         <v>5</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="12.75" customHeight="1">
@@ -6260,10 +6284,10 @@
         <v>6</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="12.75" customHeight="1">
@@ -6273,10 +6297,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="12.75" customHeight="1">
@@ -6286,10 +6310,10 @@
         <v>8</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="12.75" customHeight="1">
@@ -6303,10 +6327,10 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="12.75" customHeight="1">
@@ -6332,7 +6356,7 @@
         <v>112</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="12.75" customHeight="1">
@@ -6358,7 +6382,7 @@
         <v>114</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="12.75" customHeight="1">
@@ -6372,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="12.75" customHeight="1">
@@ -6401,7 +6425,7 @@
         <v>112</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="12.75" customHeight="1">
@@ -6427,7 +6451,7 @@
         <v>114</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="12.75" customHeight="1">
@@ -10425,7 +10449,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1688501078" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1688516537" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10434,16 +10458,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1688501078" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1688501078" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688501078" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688501078" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688501078" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688516537" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10793,7 +10817,7 @@
         <v>136</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10806,7 +10830,7 @@
         <v>137</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="4:4">
@@ -10831,7 +10855,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1688501078" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1688516537" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10840,16 +10864,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1688501078" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1688501078" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688501078" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688501078" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688501078" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688516537" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
+++ b/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1688516537" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1688516537" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1688516537" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1688516537"/>
+      <pm:revision xmlns:pm="smNativeData" day="1688519974" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1688519974" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1688519974" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1688519974"/>
       <pm:pdfExportOpt xmlns:pm="smNativeData" pagesRangeIndex="1" pagesSelectionIndex="0" qualityIndex="0" embedFonts="2" useJpegs="0" useSubsetFonts="1" useAlpha="1" relativeLinks="0" taggedPdf="1" pane="0" zoom="0" zoomScale="100" layout="0" includeDoc="0" viewFlags="0" openViewer="1" jpegQuality="90" flags="252" exportWsNames="1" name="C:\Users\Leonardo\Documents\Boletim de Medição - Roteiro de Testes - Configurações.pdf"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="141">
   <si>
     <t xml:space="preserve">                                                                                                          Boletim de Medição - Roteiro de Testes</t>
   </si>
@@ -52,7 +52,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -72,7 +72,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -97,7 +97,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -117,7 +117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -142,7 +142,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -164,7 +164,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -184,7 +184,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -206,7 +206,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -226,7 +226,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -251,7 +251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -271,7 +271,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -293,7 +293,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -313,7 +313,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -321,7 +321,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na opção "Configurações", o sistema deve redirecionar para a tela "Contratadas".</t>
+      <t xml:space="preserve"> Ao clicar na opção "Configurações", o sistema deve navegar para a tela "Contratadas".</t>
     </r>
   </si>
   <si>
@@ -338,7 +338,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -358,7 +358,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -380,7 +380,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -400,7 +400,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -422,7 +422,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -442,7 +442,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -464,7 +464,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -484,7 +484,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -506,7 +506,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -526,7 +526,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -548,7 +548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -568,7 +568,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -590,7 +590,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -610,7 +610,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -632,7 +632,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -652,7 +652,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -674,7 +674,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -694,7 +694,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -722,7 +722,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -730,11 +730,8 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos. A tabela deve exibir 10 itens por vez.</t>
-    </r>
-  </si>
-  <si>
-    <t>Pendente</t>
+      <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos. A tabela deve exibir ao máximo 10 itens por vez.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -747,7 +744,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -767,7 +764,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -775,7 +772,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Ao clicar no botão "Adicionar Contratada". O sistema deve redirecionar para tela "Criar Contratada". </t>
+      <t xml:space="preserve">Ao clicar no botão "Adicionar Contratada". O sistema deve navegar para tela "Criar Contratada". </t>
     </r>
   </si>
   <si>
@@ -789,7 +786,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -809,7 +806,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -831,7 +828,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -851,7 +848,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -873,7 +870,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -893,7 +890,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -906,19 +903,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de icone de voltar página: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de funcionalidade do icone de voltar página: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -931,19 +928,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de Desabilitação do Ícone de Voltar à Página: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de desabilitação do Ícone de Voltar à Página: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -956,19 +953,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de icone de avançar página:  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de comportamento do icone de avançar página:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -981,19 +978,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de Desabilitação do Ícone de Avançar Página: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de desabilitação do Ícone de Avançar Página: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1018,7 +1015,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1043,7 +1040,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1063,7 +1060,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1071,7 +1068,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Deixando os campos de entrada vazios, os campos ficarão vermelhos, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
+      <t xml:space="preserve"> Deixando os campos de entrada vazios, os campos mudarão de cor, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
     </r>
   </si>
   <si>
@@ -1088,7 +1085,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1113,7 +1110,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1138,7 +1135,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1163,7 +1160,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1188,7 +1185,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1213,7 +1210,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1221,7 +1218,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão 'Salvar Dados' deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'Contratadas' e os dados devem ser salvos na tabela da aba "Contratadas".</t>
+      <t>Ao preencher corretamente todos os campos, o botão 'Salvar Dados' deve ser ativado. Ao clicar no botão, o sistema deve navagar para a tela "Contratadas" e os dados devem ser salvos na tabela da aba "Contratadas".</t>
     </r>
   </si>
   <si>
@@ -1238,7 +1235,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1258,7 +1255,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1266,7 +1263,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Apagando as entradas de cada campo, os campos ficarão vermelhos, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
+      <t xml:space="preserve"> Apagando as entradas de cada campo, os campos mudarão de cor, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
     </r>
   </si>
   <si>
@@ -1283,7 +1280,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1308,7 +1305,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1336,7 +1333,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1356,7 +1353,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1376,7 +1373,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1384,7 +1381,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Deve ser exibidos 10 items por tabela.</t>
+      <t>Deve ser exibidos no máximo 10 items por tabela.</t>
     </r>
   </si>
   <si>
@@ -1398,7 +1395,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1418,7 +1415,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1426,7 +1423,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Ao clicar no botão "Adicionar CAF". O sistema deve redirecionar para tela "Adicionar CAFS". </t>
+      <t xml:space="preserve">Ao clicar no botão "Adicionar CAF". O sistema deve navegar para tela "Adicionar CAFS". </t>
     </r>
   </si>
   <si>
@@ -1440,7 +1437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1460,7 +1457,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1482,7 +1479,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1502,7 +1499,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1527,7 +1524,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1552,7 +1549,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1564,7 +1561,338 @@
     </r>
   </si>
   <si>
-    <t>Tab Caf - Adicionar CAF</t>
+    <t>Tab CAF - Adicionar CAFS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia no campo Título CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Deixando o campo de entrada vazio, o campo mudará de cor, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Título CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Título do item do CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de exclusão de itens CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar no icone "x" deve deletar o item CAF.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Adição de Itens CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar CAF", devem ser adicionados inúmeros itens CAF, mesmo que nenhum item CAF tenha sido criado anteriormente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de comportamento do ícone para cima:   </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clica no icone deve trocar os dados de entrada do input do item CAF criado anteriomente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de comportamento do ícone para baixo:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clica no icone deve trocar os dados de entrada do input do item CAF criado posteriomente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada válida: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'CAF' e os dados devem ser salvos na tabela da Tab "CAFS".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab CAF - Editar CAFS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia no campo Título CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Deixando o campo de entrada vazio, o campo ficará vermelhos, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Entrada no Campo Título do Item do CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Este campo deve aceitar letras do alfabeto, caracteres especiais e números. Cada campo 'Item CAF' deve receber sua respectiva entrada de dados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Adição de Itens CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar CAF", devem ser adicionados inúmeros itens CAF, mesmo que nenhum item CAF tenha sido criado anteriormente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada válida: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados" deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'CAF' e os dados devem ser salvos na tabela da Tab "CAFS".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste visualização da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos. Deve ser exibidos 10 items por tabela.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1577,7 +1905,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1585,19 +1913,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de entrada vazia:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de rota do botão "Adicionar": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1605,24 +1933,195 @@
           </ext>
         </extLst>
       </rPr>
+      <t xml:space="preserve">Ao clicar no botão "Adicionar Boletim". O sistema deve redirecionar para tela "Adicionar Boletim". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de rota do botão "Editar":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar Boletim".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Adição de dados na aba Dados Base</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de rota na aba Boletim:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar na aba "Boletim", a aba deve ficar selecionada e o sitema deve navegar para a tela de "Boletim" para inserir os dados em seus determinados campos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de rota na aba Reajuste:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e o sitema deve navegar para a tela  de "Reajuste" para inserir os dados em seus determinados campos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de entrada vazia:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t xml:space="preserve"> Deixando o campo de entrada vazio, o botão 'Salvar Dados' deve ficar desativado.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada vazia no campo Título CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de entrada no campo Título Boletim: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1630,24 +2129,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Deixando o campo de entrada vazio, o campo ficará vermelhos, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Título CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Projeto Associado: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1655,213 +2154,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Título do item do CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de exclusão de itens CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> Ao clicar no icone "x" deve deletar o item CAF.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Adição de Itens CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no link "Adicionar CAF", devem ser adicionados inúmeros itens CAF, mesmo que nenhum item CAF tenha sido criado anteriormente.</t>
-    </r>
-  </si>
-  <si>
-    <t>//TESTE NO ICONE SETA DE ITENS CAF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada válida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'CAF' e os dados devem ser salvos na tabela da Tab "CAFS".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Caf - Editar CAF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada vazia no campo Título CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Deixando o campo de entrada vazio, o campo ficará vermelhos, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Entrada no Campo Título do Item do CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Este campo deve aceitar letras do alfabeto, caracteres especiais e números. Cada campo 'Item CAF' deve receber sua respectiva entrada de dados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Adição de Itens CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no link "Adicionar CAF", devem ser adicionados inúmeros itens CAF, mesmo que nenhum item CAF tenha sido criado anteriormente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Desativação do Botão "Salvar Dados":  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Se não houver nenhum item CAF, o botão "Salvar Dados" deve estar desativado.</t>
+      <t xml:space="preserve">Ao clicar nesse campo </t>
     </r>
     <r>
       <rPr>
@@ -1873,7 +2166,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1883,22 +2176,17 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada válida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1906,27 +2194,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados" deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'CAF' e os dados devem ser salvos na tabela da Tab "CAFS".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste visualização da tabela: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>deve abrir um dropdown com projetos associados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Contratada Associada: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1934,7 +2219,82 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos. Deve ser exibidos 10 items por tabela.</t>
+      <t>Ao clicar neste campo, deve-se abrir um dropdown que exibe as contratadas criadas na tela de "Criação de Contratadas", permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo CAF Associado: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar neste campo, deve-se abrir um dropdown que exibe as CAF associadas criadas na tela de "Criação de CAFS", permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar neste campo, deve-se abrir um dropdown com os seguintes status, "Ativo", "Inativo" e "Pendente", permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Valor Adiantamento: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas a entrada de números.</t>
     </r>
   </si>
   <si>
@@ -1948,7 +2308,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1956,19 +2316,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de rota do botão "Adicionar": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de Rota no botão Salvar:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1976,8 +2336,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Ao clicar no botão "Adicionar Boletim". O sistema deve redirecionar para tela "Adicionar Boletim". </t>
-    </r>
+      <t xml:space="preserve"> O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecioar para a aba "Boletim" que será automaticamente ativada.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <r>
@@ -1990,7 +2353,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1998,19 +2361,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota do botão "Editar":</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de Salvamento de Dados:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2018,11 +2381,389 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar Boletim".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Adição de dados na aba Dados Base</t>
+      <t xml:space="preserve"> O sistema permitirá o salvamento de dados, ativando o botão "Salvar Dados" quando todos os campos forem preenchidos corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Adição de dados na aba Boletim Base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo de busca de atividades: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. Deve filtrar as atividades de acordo com o que foi digitado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo de filtro de atividades: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve ter a lista de todas as atividades criadas para sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Atividade: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Valor Atividade: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada apenas de números. Quando sua hierarquia for de "Pai", campo deve ser desabilitado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Un. Medida: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas unidades de medida já pré-definidas pelo sistema, permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Un.: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas as siglas da unidade de medidas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia nos campos referentes a tabela.: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Deixando os campos de entrada vazios, os campos ficarão vermelhos, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Criação de Atividades Filha: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no ícone de criação, deve-se criar uma nova atividade com a hierarquia de "Filha" da atividade anterior, e os campos "Valor Atividade" e "Un." da atividade "Pai" devem ser desabilitados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Exclusão de Atividades Pai: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no ícone de exclusão para uma atividade com hierarquia 'Pai', a exclusão deve ser realizada em cascata.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de adição de uma nova  atividade: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar atividade" sera criada um nova atividade "Pai"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de rota no botão Salvar: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecionar para a aba "Reajute" que será automaticamente ativada.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Adição de dados na aba Reajuste</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo %Reajuste: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada apenas de números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Aplicar A Partir De Qual Data?": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada apenas de números, no formato de data (dd/mm/aaaa).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Metodologia": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas as entradas ja predefininidas pelo sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de criação de novos reajustes: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar reajuste" deve ser criado um novo reajuste com seus respectivos campos.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2035,7 +2776,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2043,19 +2784,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota na aba Boletim:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de funcionalidade da organização:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2063,8 +2804,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na aba "Boletim", a aba deve ficar selecionada e também ser redirecionado para a tela de "Boletim" para inserir os dados em seus determinados campos.</t>
-    </r>
+      <t xml:space="preserve"> Ao clicar no icone "seta" deve organizar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Edição de dados na aba Dados base</t>
   </si>
   <si>
     <r>
@@ -2077,7 +2821,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2085,19 +2829,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota na aba Reajuste:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de rota na aba Boletim:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2105,7 +2849,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e também ser redirecionado para a tela de "Reajuste" para inserir os dados em seus determinados campos.</t>
+      <t xml:space="preserve"> Ao clicar na aba "Boletim", a aba deve ficar selecionada e também ser redirecionado para a tela de "Boletim" para inserir os dados em seus determinados campos.</t>
     </r>
   </si>
   <si>
@@ -2119,7 +2863,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2127,19 +2871,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de entrada vazia:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de rota na aba Reajuste:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2147,24 +2891,75 @@
           </ext>
         </extLst>
       </rPr>
+      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e também ser redirecionado para a tela de "Reajuste" para inserir os dados em seus determinados campos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de entrada vazia:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t xml:space="preserve"> Deixando o campo de entrada vazio, o botão 'Salvar Dados' deve ficar desativado.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Título Boletim: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+    <t>Tab Boletins - Edição de dados na aba Boletim</t>
+  </si>
+  <si>
+    <t>Tab Boletins - Edição de dados na aba Reajuste</t>
+  </si>
+  <si>
+    <t>Tab projeto</t>
+  </si>
+  <si>
+    <r>
+      <t>Teste visualização da tabela:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2172,32 +2967,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Projeto Associado: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">Ao clicar nesse campo </t>
+      <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos.</t>
     </r>
     <r>
       <rPr>
@@ -2209,7 +2979,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2217,19 +2987,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2237,107 +3007,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>deve abrir um dropdown com projetos associados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Contratada Associada: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar neste campo, deve-se abrir um dropdown que exibe as contratadas criadas na tela de "Criação de Contratadas", permitindo sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo CAF Associado: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar neste campo, deve-se abrir um dropdown que exibe as CAF associadas criadas na tela de "Criação de CAFS", permitindo sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Status: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar neste campo, deve-se abrir um dropdown com os seguintes status, "Ativo", "Inativo" e "Pendente", permitindo sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Valor Adiantamento: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar apenas a entrada de números.</t>
+      <t>Deve ser exibidos 10 items por tabela.</t>
     </r>
   </si>
   <si>
@@ -2351,7 +3021,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2359,19 +3029,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de Rota no botão Salvar:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de rota do botão "Adicionar": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2379,7 +3049,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecioar para a aba "Boletim" que será automaticamente ativada.</t>
+      <t xml:space="preserve">Ao clicar no botão "Adicionar Projeto". O sistema deve redirecionar para tela "Adicionar PROJETO". </t>
     </r>
   </si>
   <si>
@@ -2393,7 +3063,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2401,19 +3071,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de Salvamento de Dados:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de rota do botão "Editar":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2421,27 +3091,27 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O sistema permitirá o salvamento de dados, ativando o botão "Salvar Dados" quando todos os campos forem preenchidos corretamente.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Adição de dados na aba Boletim</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo de busca de atividades: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar PROJETO".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab projeto - Adicionar projeto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia no campo Nome do projeto: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2449,24 +3119,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. Deve filtrar as atividades de acordo com o que foi digitado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo de filtro de atividades: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Deixando o campo de entrada vazio, o campo ficará vermelhos, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Nome do projeto: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2474,24 +3144,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O campo deve ter a lista de todas as atividades criadas para sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Atividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo Número sap: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2499,24 +3169,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Valor Atividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada válida: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2524,24 +3194,33 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O campo deve aceitar a entrada apenas de números. Quando sua hierarquia for de "Pai", campo deve ser desabilitado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Un. Medida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'PROJETO' e os dados devem ser salvos na tabela da Tab "PROJETO".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab projeto - Editar projeto</t>
+  </si>
+  <si>
+    <t>Boletim de Medição - Roteiro de Testes</t>
+  </si>
+  <si>
+    <t>Selecionar item menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de exibição do menu: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2549,260 +3228,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O campo deve aceitar apenas unidades de medida já pré-definidas pelo sistema, permitindo sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Un.: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar apenas as siglas da unidade de medidas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada vazia nos campos referentes a tabela.: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> Deixando os campos de entrada vazios, os campos ficarão vermelhos, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Criação de Atividades Filha: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no ícone de criação, deve-se criar uma nova atividade com a hierarquia de "Filha" da atividade anterior, e os campos "Valor Atividade" e "Un." da atividade "Pai" devem ser desabilitados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Exclusão de Atividades Pai: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no ícone de exclusão para uma atividade com hierarquia 'Pai', a exclusão deve ser realizada em cascata.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de adição de uma nova  atividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no link "Adicionar atividade" sera criada um nova atividade "Pai"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de rota no botão Salvar: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecionar para a aba "Reajute" que será automaticamente ativada.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Adição de dados na aba Reajuste</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo %Reajuste: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada apenas de números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo "Aplicar A Partir De Qual Data?": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada apenas de números, no formato de data (dd/mm/aaaa).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo "Metodologia": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar apenas as entradas ja predefininidas pelo sistema.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de criação de novos reajustes: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no link "Adicionar reajuste" deve ser criado um novo reajuste com seus respectivos campos.</t>
+      <t>O menu lateral deve ser exibido corretamente ao logar no sistema.</t>
     </r>
   </si>
   <si>
@@ -2816,7 +3242,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2824,19 +3250,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de funcionalidade da organização:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de clique no menu: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2844,20 +3270,61 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no icone "seta" deve organizar.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Edição de dados na aba Dados base</t>
-  </si>
-  <si>
-    <t>Tab Boletins - Edição de dados na aba Boletim</t>
-  </si>
-  <si>
-    <t>Tab Boletins - Edição de dados na aba Reajuste</t>
-  </si>
-  <si>
-    <t>Tab projeto</t>
+      <t>Ao clicar na opção "Dashboard" no menu, o sistema deve navegar para a página do dashboard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de responsividade: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O menu deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de carregamento do vídeo: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O vídeo do YouTube deve carregar corretamente quando a seção correspondente é acessada.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2870,7 +3337,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2878,19 +3345,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de rota do botão "Adicionar": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t xml:space="preserve">Teste de controle de reprodução: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2898,7 +3365,32 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Ao clicar no botão "Adicionar Projeto". O sistema deve redirecionar para tela "Adicionar PROJETO". </t>
+      <t>Os controles de reprodução do vídeo devem funcionar corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> O vídeo deve se adaptar corretamente a diferentes tamanhos de tela.</t>
     </r>
   </si>
   <si>
@@ -2912,7 +3404,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2920,19 +3412,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota do botão "Editar":</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de qualidade de vídeo:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2940,145 +3432,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar PROJETO".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab projeto - Adicionar projeto</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada vazia no campo Nome do projeto: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Deixando o campo de entrada vazio, o campo ficará vermelhos, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Nome do projeto: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Número sap: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada válida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'PROJETO' e os dados devem ser salvos na tabela da Tab "PROJETO".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab projeto - Editar projeto</t>
-  </si>
-  <si>
-    <t>Boletim de Medição - Roteiro de Testes</t>
-  </si>
-  <si>
-    <t>Selecionar item menu</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de exibição do menu: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O menu lateral deve ser exibido corretamente ao logar no sistema.</t>
-    </r>
+      <t xml:space="preserve"> O vídeo deve ser capaz de rodar em diferentes qualidades, de acordo com a configuração do usuário e a disponibilidade de largura de banda da internet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Botão de ajuda e modal</t>
   </si>
   <si>
     <r>
@@ -3091,7 +3449,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3099,19 +3457,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de clique no menu: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de visibilidade do botão:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3119,60 +3477,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao clicar na opção "Dashboard" no menu, o sistema deve navegar para a página do dashboard.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de responsividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O menu deve ser exibido corretamente em diferentes tamanhos de tela.</t>
-    </r>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de carregamento do vídeo: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O vídeo do YouTube deve carregar corretamente quando a seção correspondente é acessada.</t>
+      <t xml:space="preserve"> O botão de ajuda deve estar visível e claramente identificável.</t>
     </r>
   </si>
   <si>
@@ -3186,7 +3491,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3194,19 +3499,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de controle de reprodução: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de abertura do modal:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3214,32 +3519,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Os controles de reprodução do vídeo devem funcionar corretamente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Teste de responsividade:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> O vídeo deve se adaptar corretamente a diferentes tamanhos de tela.</t>
+      <t xml:space="preserve"> Ao clicar no botão de ajuda, o modal correspondente deve abrir corretamente.</t>
     </r>
   </si>
   <si>
@@ -3253,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3261,19 +3541,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de qualidade de vídeo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de exibição das informações:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3281,11 +3561,8 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O vídeo deve ser capaz de rodar em diferentes qualidades, de acordo com a configuração do usuário e a disponibilidade de largura de banda da internet.</t>
-    </r>
-  </si>
-  <si>
-    <t>Botão de ajuda e modal</t>
+      <t xml:space="preserve"> As informações dentro do modal devem ser claras e legíveis.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3298,7 +3575,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3306,19 +3583,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de visibilidade do botão:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de fechamento do modal:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3326,7 +3603,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O botão de ajuda deve estar visível e claramente identificável.</t>
+      <t xml:space="preserve"> O modal deve ser fechado ao clicar no botão de fechamento correspondente.</t>
     </r>
   </si>
   <si>
@@ -3340,7 +3617,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3348,19 +3625,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de abertura do modal:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de responsividade geral:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3368,8 +3645,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no botão de ajuda, o modal correspondente deve abrir corretamente.</t>
-    </r>
+      <t xml:space="preserve"> Tanto o botão quanto o modal devem se adaptar a diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gráficos</t>
   </si>
   <si>
     <r>
@@ -3382,7 +3662,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3390,19 +3670,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de exibição das informações:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de carregamento dos gráficos:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3410,7 +3690,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> As informações dentro do modal devem ser claras e legíveis.</t>
+      <t xml:space="preserve"> Os gráficos devem ser carregados corretamente quando a seção correspondente é acessada.</t>
     </r>
   </si>
   <si>
@@ -3424,7 +3704,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3432,19 +3712,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de fechamento do modal:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de interatividade dos gráficos:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3452,7 +3732,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O modal deve ser fechado ao clicar no botão de fechamento correspondente.</t>
+      <t xml:space="preserve"> As funcionalidades interativas dos gráficos (tooltips, detalhamento ao clicar, etc) devem funcionar corretamente.</t>
     </r>
   </si>
   <si>
@@ -3466,7 +3746,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3474,19 +3754,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de responsividade geral:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3494,11 +3774,8 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Tanto o botão quanto o modal devem se adaptar a diferentes tamanhos de tela.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gráficos</t>
+      <t xml:space="preserve"> Os gráficos devem se adaptar corretamente a diferentes tamanhos de tela.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3511,7 +3788,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3519,19 +3796,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de carregamento dos gráficos:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+      <t>Teste de filtragem do grafico:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3539,7 +3816,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Os gráficos devem ser carregados corretamente quando a seção correspondente é acessada.</t>
+      <t xml:space="preserve"> O gráfico deve filtrar corretamente o que for selecionado.</t>
     </r>
   </si>
   <si>
@@ -3553,7 +3830,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3561,132 +3838,6 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de interatividade dos gráficos:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> As funcionalidades interativas dos gráficos (tooltips, detalhamento ao clicar, etc) devem funcionar corretamente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Teste de responsividade:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> Os gráficos devem se adaptar corretamente a diferentes tamanhos de tela.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Teste de filtragem do grafico:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> O gráfico deve filtrar corretamente o que for selecionado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
-              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
       <t>Teste de precisão dos dados:</t>
     </r>
     <r>
@@ -3699,7 +3850,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688516537">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3733,7 +3884,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3749,7 +3900,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" fgClr="F3F3F3" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" fgClr="F3F3F3" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -3765,7 +3916,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3781,7 +3932,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" fgClr="007F00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" fgClr="007F00" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3797,7 +3948,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" fgClr="0000FF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" fgClr="0000FF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3813,7 +3964,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3828,7 +3979,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688516537" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3837,7 +3988,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3850,7 +4001,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3861,7 +4012,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3872,7 +4023,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3883,7 +4034,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00F7F7F7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00F7F7F7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3894,7 +4045,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00CCCCCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00CCCCCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3905,7 +4056,18 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00434343" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00434343" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3916,13 +4078,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688516537" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="0" fgClr="00F2F2F2" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -3938,7 +4111,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -3957,7 +4130,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -3976,7 +4149,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -3995,7 +4168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -4014,7 +4187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -4033,7 +4206,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -4052,7 +4225,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -4071,7 +4244,45 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688516537"/>
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
         </ext>
       </extLst>
     </border>
@@ -4120,8 +4331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4152,7 +4361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4163,10 +4378,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1688516537" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1688519974" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1688516537" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1688519974" count="4">
         <pm:color name="Cor 24" rgb="F3F3F3"/>
         <pm:color name="Cor 25" rgb="434343"/>
         <pm:color name="Cor 26" rgb="F2F2F2"/>
@@ -4436,10 +4651,10 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G1158"/>
+  <dimension ref="A1:G1157"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B55" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="B16" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.567568" defaultRowHeight="15.75" customHeight="1"/>
@@ -4450,15 +4665,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -4538,7 +4753,7 @@
       <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -4553,7 +4768,7 @@
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3" t="n">
         <v>2</v>
       </c>
@@ -4568,13 +4783,13 @@
       <c r="A10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -4583,11 +4798,11 @@
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -4596,11 +4811,11 @@
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -4609,11 +4824,11 @@
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -4622,11 +4837,11 @@
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -4635,11 +4850,11 @@
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -4648,11 +4863,11 @@
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -4661,11 +4876,11 @@
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -4674,11 +4889,11 @@
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -4689,7 +4904,7 @@
       <c r="A19" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="8" t="n">
@@ -4698,18 +4913,18 @@
       <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>26</v>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="8" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>6</v>
@@ -4717,12 +4932,12 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="8" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>6</v>
@@ -4730,12 +4945,12 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="8" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>6</v>
@@ -4743,12 +4958,12 @@
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>6</v>
@@ -4756,12 +4971,12 @@
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>6</v>
@@ -4769,12 +4984,12 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="8" t="n">
         <v>7</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>6</v>
@@ -4782,12 +4997,12 @@
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="8" t="n">
         <v>7</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>6</v>
@@ -4795,12 +5010,12 @@
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="8" t="n">
         <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>6</v>
@@ -4808,12 +5023,12 @@
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="8" t="n">
         <v>9</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>6</v>
@@ -4823,14 +5038,14 @@
       <c r="A29" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>36</v>
+      <c r="B29" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>6</v>
@@ -4838,12 +5053,12 @@
     </row>
     <row r="30" spans="1:5" ht="13.50" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>6</v>
@@ -4851,12 +5066,12 @@
     </row>
     <row r="31" spans="1:5" ht="13.50" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>6</v>
@@ -4864,12 +5079,12 @@
     </row>
     <row r="32" spans="1:5" ht="13.50" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>6</v>
@@ -4877,12 +5092,12 @@
     </row>
     <row r="33" spans="1:5" ht="13.50" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>6</v>
@@ -4890,12 +5105,12 @@
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>6</v>
@@ -4903,12 +5118,12 @@
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="25"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>6</v>
@@ -4919,13 +5134,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>6</v>
@@ -4938,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>6</v>
@@ -4951,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>6</v>
@@ -4964,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>6</v>
@@ -4977,7 +5192,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>6</v>
@@ -4990,7 +5205,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>6</v>
@@ -5004,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>6</v>
@@ -5015,14 +5230,14 @@
       <c r="A43" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>48</v>
+      <c r="B43" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>6</v>
@@ -5030,12 +5245,12 @@
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>6</v>
@@ -5043,12 +5258,12 @@
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>6</v>
@@ -5056,12 +5271,12 @@
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>6</v>
@@ -5069,12 +5284,12 @@
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>6</v>
@@ -5082,12 +5297,12 @@
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>6</v>
@@ -5095,12 +5310,12 @@
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>6</v>
@@ -5108,12 +5323,12 @@
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>6</v>
@@ -5123,27 +5338,27 @@
       <c r="A51" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>55</v>
+      <c r="B51" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>26</v>
+      <c r="D51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1">
       <c r="A52" s="8"/>
-      <c r="B52" s="24"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="8" t="n">
         <v>2</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>6</v>
@@ -5151,12 +5366,12 @@
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="24"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="8" t="n">
         <v>3</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>6</v>
@@ -5164,12 +5379,12 @@
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1">
       <c r="A54" s="8"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="8" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>6</v>
@@ -5177,12 +5392,12 @@
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1">
       <c r="A55" s="8"/>
-      <c r="B55" s="24"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="8" t="n">
         <v>5</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>6</v>
@@ -5190,176 +5405,176 @@
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1">
       <c r="A56" s="8"/>
-      <c r="B56" s="24"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1">
       <c r="A57" s="8"/>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>26</v>
+      <c r="D57" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1">
       <c r="A58" s="8"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="8" t="n">
         <v>8</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>64</v>
+      <c r="B59" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="C59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="21"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="21"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="21"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="21"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="21"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="21"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>26</v>
+      <c r="D65" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="21"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A67" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="C67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>26</v>
+      <c r="E67" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A68" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B68" s="23" t="s">
+      <c r="A68" s="8"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
         <v>70</v>
-      </c>
-      <c r="C68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>6</v>
@@ -5367,12 +5582,12 @@
     </row>
     <row r="69" spans="1:5" ht="12.75" customHeight="1">
       <c r="A69" s="8"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>6</v>
@@ -5380,12 +5595,12 @@
     </row>
     <row r="70" spans="1:5" ht="12.75" customHeight="1">
       <c r="A70" s="8"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>6</v>
@@ -5393,12 +5608,12 @@
     </row>
     <row r="71" spans="1:5" ht="12.75" customHeight="1">
       <c r="A71" s="8"/>
-      <c r="B71" s="23"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>6</v>
@@ -5406,11 +5621,11 @@
     </row>
     <row r="72" spans="1:5" ht="12.75" customHeight="1">
       <c r="A72" s="8"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -5419,9 +5634,9 @@
     </row>
     <row r="73" spans="1:5" ht="12.75" customHeight="1">
       <c r="A73" s="8"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>53</v>
@@ -5432,277 +5647,277 @@
     </row>
     <row r="74" spans="1:5" ht="12.75" customHeight="1">
       <c r="A74" s="8"/>
-      <c r="B74" s="23"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A75" s="8"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="A75" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A76" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="8"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="12.75" customHeight="1">
       <c r="A77" s="8"/>
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="12.75" customHeight="1">
       <c r="A78" s="8"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="12.75" customHeight="1">
       <c r="A79" s="8"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="12.75" customHeight="1">
       <c r="A80" s="8"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" customHeight="1">
       <c r="A81" s="8"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" customHeight="1">
       <c r="A82" s="8"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="12.75" customHeight="1">
       <c r="A83" s="8"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1">
       <c r="A84" s="8"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" customHeight="1">
       <c r="A85" s="8"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>26</v>
+      <c r="E85" s="29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="A86" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>85</v>
       </c>
+      <c r="C86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="E86" s="14" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A87" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="A87" s="8"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" customHeight="1">
       <c r="A88" s="8"/>
-      <c r="B88" s="23"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>26</v>
+      <c r="E88" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" customHeight="1">
       <c r="A89" s="8"/>
-      <c r="B89" s="23"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>6</v>
+      <c r="E89" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="12.75" customHeight="1">
       <c r="A90" s="8"/>
-      <c r="B90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>26</v>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1">
       <c r="A91" s="8"/>
-      <c r="B91" s="23"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>6</v>
+      <c r="E91" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" customHeight="1">
       <c r="A92" s="8"/>
-      <c r="B92" s="23"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" customHeight="1">
       <c r="A93" s="8"/>
-      <c r="B93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E93" s="14" t="s">
-        <v>26</v>
+      <c r="E93" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="12.75" customHeight="1">
       <c r="A94" s="8"/>
-      <c r="B94" s="23"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>94</v>
@@ -5713,9 +5928,9 @@
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1">
       <c r="A95" s="8"/>
-      <c r="B95" s="23"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>95</v>
@@ -5726,733 +5941,724 @@
     </row>
     <row r="96" spans="1:5" ht="12.75" customHeight="1">
       <c r="A96" s="8"/>
-      <c r="B96" s="23"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>6</v>
+      <c r="E96" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A97" s="8"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D97" s="17" t="s">
+      <c r="A97" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="14" t="s">
-        <v>26</v>
+      <c r="C97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A98" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="A98" s="8"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>26</v>
+      <c r="E98" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="12.75" customHeight="1">
       <c r="A99" s="8"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>6</v>
+      <c r="E99" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="12.75" customHeight="1">
       <c r="A100" s="8"/>
-      <c r="B100" s="22"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>26</v>
+      <c r="E100" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="12.75" customHeight="1">
       <c r="A101" s="8"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D101" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>6</v>
+      <c r="E101" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="12.75" customHeight="1">
       <c r="A102" s="8"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A103" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A103" s="8"/>
-      <c r="B103" s="22"/>
       <c r="C103" s="7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A104" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="A104" s="8"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="12.75" customHeight="1">
       <c r="A105" s="8"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1">
       <c r="A106" s="8"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="12.75" customHeight="1">
       <c r="A107" s="8"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1">
       <c r="A108" s="8"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="12.75" customHeight="1">
       <c r="A109" s="8"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="12.75" customHeight="1">
       <c r="A110" s="8"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="12.75" customHeight="1">
       <c r="A111" s="8"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="12.75" customHeight="1">
       <c r="A112" s="8"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D112" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="12.75" customHeight="1">
       <c r="A113" s="8"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A114" s="8"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C114" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A115" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>105</v>
-      </c>
+      <c r="A115" s="8"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>26</v>
+      <c r="E115" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="12.75" customHeight="1">
       <c r="A116" s="8"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="15" t="s">
-        <v>6</v>
+      <c r="E116" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="12.75" customHeight="1">
       <c r="A117" s="8"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E117" s="16" t="s">
-        <v>26</v>
+      <c r="E117" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="12.75" customHeight="1">
       <c r="A118" s="8"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>6</v>
+      <c r="E118" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="12.75" customHeight="1">
       <c r="A119" s="8"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="12.75" customHeight="1">
       <c r="A120" s="8"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="12.75" customHeight="1">
       <c r="A121" s="8"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E121" s="16" t="s">
-        <v>26</v>
+      <c r="E121" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="12.75" customHeight="1">
       <c r="A122" s="8"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E122" s="15" t="s">
-        <v>6</v>
+      <c r="E122" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="12.75" customHeight="1">
       <c r="A123" s="8"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="12.75" customHeight="1">
       <c r="A124" s="8"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A125" s="8"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C125" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A126" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>106</v>
-      </c>
+      <c r="A126" s="8"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E126" s="16" t="s">
-        <v>26</v>
+      <c r="E126" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="12.75" customHeight="1">
       <c r="A127" s="8"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="15" t="s">
-        <v>6</v>
+      <c r="E127" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="12.75" customHeight="1">
       <c r="A128" s="8"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>26</v>
+      <c r="E128" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="12.75" customHeight="1">
       <c r="A129" s="8"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E129" s="15" t="s">
-        <v>6</v>
+      <c r="E129" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="12.75" customHeight="1">
       <c r="A130" s="8"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A131" s="8"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="C131" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A132" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="A132" s="8"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="12.75" customHeight="1">
       <c r="A133" s="8"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="12.75" customHeight="1">
       <c r="A134" s="8"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="12.75" customHeight="1">
       <c r="A135" s="8"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="12.75" customHeight="1">
       <c r="A136" s="8"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="12.75" customHeight="1">
       <c r="A137" s="8"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="12.75" customHeight="1">
       <c r="A138" s="8"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A139" s="8"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="C139" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A140" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>110</v>
-      </c>
+      <c r="A140" s="8"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="12.75" customHeight="1">
       <c r="A141" s="8"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="12.75" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="12.75" customHeight="1">
       <c r="A143" s="8"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A144" s="8"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="C144" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D144" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A145" s="8"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A145" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>26</v>
+      <c r="E145" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="12.75" customHeight="1">
       <c r="A146" s="8"/>
-      <c r="B146" s="22"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="12.75" customHeight="1">
       <c r="A147" s="8"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="12.75" customHeight="1">
       <c r="A148" s="8"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A149" s="8"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="E149" s="14"/>
     </row>
     <row r="150" spans="1:5" ht="12.75" customHeight="1">
       <c r="A150" s="2"/>
@@ -6476,51 +6682,51 @@
     </row>
     <row r="155" spans="1:5" ht="12.75" customHeight="1">
       <c r="A155" s="2"/>
-      <c r="E155" s="14"/>
+      <c r="E155" s="19"/>
     </row>
     <row r="156" spans="1:5" ht="12.75" customHeight="1">
       <c r="A156" s="2"/>
-      <c r="E156" s="21"/>
+      <c r="E156" s="19"/>
     </row>
     <row r="157" spans="1:5" ht="12.75" customHeight="1">
       <c r="A157" s="2"/>
-      <c r="E157" s="21"/>
+      <c r="E157" s="19"/>
     </row>
     <row r="158" spans="1:5" ht="12.75" customHeight="1">
       <c r="A158" s="2"/>
-      <c r="E158" s="21"/>
+      <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5" ht="12.75" customHeight="1">
       <c r="A159" s="2"/>
-      <c r="E159" s="21"/>
+      <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5" ht="12.75" customHeight="1">
       <c r="A160" s="2"/>
-      <c r="E160" s="21"/>
+      <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" ht="12.75" customHeight="1">
       <c r="A161" s="2"/>
-      <c r="E161" s="21"/>
+      <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5" ht="12.75" customHeight="1">
       <c r="A162" s="2"/>
-      <c r="E162" s="21"/>
+      <c r="E162" s="19"/>
     </row>
     <row r="163" spans="1:5" ht="12.75" customHeight="1">
       <c r="A163" s="2"/>
-      <c r="E163" s="21"/>
+      <c r="E163" s="19"/>
     </row>
     <row r="164" spans="1:5" ht="12.75" customHeight="1">
       <c r="A164" s="2"/>
-      <c r="E164" s="21"/>
+      <c r="E164" s="19"/>
     </row>
     <row r="165" spans="1:5" ht="12.75" customHeight="1">
       <c r="A165" s="2"/>
-      <c r="E165" s="21"/>
+      <c r="E165" s="19"/>
     </row>
     <row r="166" spans="1:5" ht="12.75" customHeight="1">
       <c r="A166" s="2"/>
-      <c r="E166" s="21"/>
+      <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" ht="12.75" customHeight="1">
       <c r="A167" s="2"/>
@@ -6620,59 +6826,59 @@
     </row>
     <row r="191" spans="1:5" ht="12.75" customHeight="1">
       <c r="A191" s="2"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="19"/>
     </row>
     <row r="192" spans="1:5" ht="12.75" customHeight="1">
       <c r="A192" s="2"/>
-      <c r="E192" s="21"/>
+      <c r="E192" s="19"/>
     </row>
     <row r="193" spans="1:5" ht="12.75" customHeight="1">
       <c r="A193" s="2"/>
-      <c r="E193" s="21"/>
+      <c r="E193" s="19"/>
     </row>
     <row r="194" spans="1:5" ht="12.75" customHeight="1">
       <c r="A194" s="2"/>
-      <c r="E194" s="21"/>
+      <c r="E194" s="19"/>
     </row>
     <row r="195" spans="1:5" ht="12.75" customHeight="1">
       <c r="A195" s="2"/>
-      <c r="E195" s="21"/>
+      <c r="E195" s="19"/>
     </row>
     <row r="196" spans="1:5" ht="12.75" customHeight="1">
       <c r="A196" s="2"/>
-      <c r="E196" s="21"/>
+      <c r="E196" s="19"/>
     </row>
     <row r="197" spans="1:5" ht="12.75" customHeight="1">
       <c r="A197" s="2"/>
-      <c r="E197" s="21"/>
+      <c r="E197" s="19"/>
     </row>
     <row r="198" spans="1:5" ht="12.75" customHeight="1">
       <c r="A198" s="2"/>
-      <c r="E198" s="21"/>
+      <c r="E198" s="19"/>
     </row>
     <row r="199" spans="1:5" ht="12.75" customHeight="1">
       <c r="A199" s="2"/>
-      <c r="E199" s="21"/>
+      <c r="E199" s="19"/>
     </row>
     <row r="200" spans="1:5" ht="12.75" customHeight="1">
       <c r="A200" s="2"/>
-      <c r="E200" s="21"/>
+      <c r="E200" s="19"/>
     </row>
     <row r="201" spans="1:5" ht="12.75" customHeight="1">
       <c r="A201" s="2"/>
-      <c r="E201" s="21"/>
+      <c r="E201" s="19"/>
     </row>
     <row r="202" spans="1:5" ht="12.75" customHeight="1">
       <c r="A202" s="2"/>
-      <c r="E202" s="21"/>
+      <c r="E202" s="19"/>
     </row>
     <row r="203" spans="1:5" ht="12.75" customHeight="1">
       <c r="A203" s="2"/>
-      <c r="E203" s="21"/>
+      <c r="E203" s="19"/>
     </row>
     <row r="204" spans="1:5" ht="12.75" customHeight="1">
       <c r="A204" s="2"/>
-      <c r="E204" s="21"/>
+      <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" ht="12.75" customHeight="1">
       <c r="A205" s="2"/>
@@ -9966,7 +10172,7 @@
       <c r="A1027" s="2"/>
       <c r="E1027" s="1"/>
     </row>
-    <row r="1028" spans="1:5" ht="12.75" customHeight="1">
+    <row r="1028" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1028" s="2"/>
       <c r="E1028" s="1"/>
     </row>
@@ -10122,8 +10328,7 @@
       <c r="A1066" s="2"/>
       <c r="E1066" s="1"/>
     </row>
-    <row r="1067" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1067" s="2"/>
+    <row r="1067" spans="5:5" ht="15.75" customHeight="1">
       <c r="E1067" s="1"/>
     </row>
     <row r="1068" spans="5:5" ht="15.75" customHeight="1">
@@ -10395,9 +10600,6 @@
     </row>
     <row r="1157" spans="5:5" ht="15.75" customHeight="1">
       <c r="E1157" s="1"/>
-    </row>
-    <row r="1158" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1158" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -10420,36 +10622,36 @@
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="A76:A86"/>
-    <mergeCell ref="B76:B86"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A104:A114"/>
-    <mergeCell ref="B104:B114"/>
-    <mergeCell ref="A115:A125"/>
-    <mergeCell ref="B115:B125"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="E156:E166"/>
-    <mergeCell ref="E167:E191"/>
-    <mergeCell ref="E192:E204"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="B86:B96"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A103:A113"/>
+    <mergeCell ref="B103:B113"/>
+    <mergeCell ref="A114:A124"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="E155:E165"/>
+    <mergeCell ref="E166:E190"/>
+    <mergeCell ref="E191:E203"/>
   </mergeCells>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1688516537" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1688519974" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10458,16 +10660,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688516537" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688519974" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10493,20 +10695,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D2"/>
@@ -10588,13 +10790,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>6</v>
@@ -10606,8 +10808,8 @@
       <c r="C9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>119</v>
+      <c r="D9" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>6</v>
@@ -10620,7 +10822,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
@@ -10632,7 +10834,7 @@
       <c r="C11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -10644,13 +10846,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>6</v>
@@ -10662,8 +10864,8 @@
       <c r="C13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>123</v>
+      <c r="D13" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>6</v>
@@ -10676,7 +10878,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>6</v>
@@ -10688,8 +10890,8 @@
       <c r="C15" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>125</v>
+      <c r="D15" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>6</v>
@@ -10700,13 +10902,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>127</v>
+      <c r="D16" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>6</v>
@@ -10718,8 +10920,8 @@
       <c r="C17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>128</v>
+      <c r="D17" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>6</v>
@@ -10731,8 +10933,8 @@
       <c r="C18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>129</v>
+      <c r="D18" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>6</v>
@@ -10744,8 +10946,8 @@
       <c r="C19" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>130</v>
+      <c r="D19" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>6</v>
@@ -10757,8 +10959,8 @@
       <c r="C20" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>131</v>
+      <c r="D20" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>6</v>
@@ -10769,13 +10971,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>133</v>
+      <c r="D21" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>6</v>
@@ -10787,8 +10989,8 @@
       <c r="C22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>134</v>
+      <c r="D22" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>6</v>
@@ -10800,8 +11002,8 @@
       <c r="C23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>135</v>
+      <c r="D23" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>6</v>
@@ -10813,11 +11015,11 @@
       <c r="C24" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>136</v>
+      <c r="D24" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10826,15 +11028,15 @@
       <c r="C25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>137</v>
+      <c r="D25" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="19"/>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10855,7 +11057,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1688516537" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1688519974" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10864,16 +11066,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1688516537" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688516537" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688516537" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688519974" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
+++ b/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1688519974" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1688519974" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1688519974" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1688519974"/>
+      <pm:revision xmlns:pm="smNativeData" day="1688596190" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1688596190" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1688596190" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1688596190"/>
       <pm:pdfExportOpt xmlns:pm="smNativeData" pagesRangeIndex="1" pagesSelectionIndex="0" qualityIndex="0" embedFonts="2" useJpegs="0" useSubsetFonts="1" useAlpha="1" relativeLinks="0" taggedPdf="1" pane="0" zoom="0" zoomScale="100" layout="0" includeDoc="0" viewFlags="0" openViewer="1" jpegQuality="90" flags="252" exportWsNames="1" name="C:\Users\Leonardo\Documents\Boletim de Medição - Roteiro de Testes - Configurações.pdf"/>
     </ext>
   </extLst>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="141">
-  <si>
-    <t xml:space="preserve">                                                                                                          Boletim de Medição - Roteiro de Testes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="163">
+  <si>
+    <t xml:space="preserve">                                                                                                           Boletim de Medição - Roteiro de Testes</t>
   </si>
   <si>
     <t>Funcionalidade</t>
@@ -52,7 +52,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -72,7 +72,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -97,7 +97,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -117,7 +117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -142,7 +142,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -164,7 +164,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -184,7 +184,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -206,7 +206,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -226,7 +226,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -251,7 +251,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -271,7 +271,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -293,7 +293,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -313,7 +313,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -338,7 +338,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -358,7 +358,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -380,7 +380,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -400,7 +400,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -422,7 +422,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -442,7 +442,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -464,7 +464,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -484,7 +484,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -506,7 +506,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -526,7 +526,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -548,7 +548,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -568,7 +568,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -590,7 +590,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -610,7 +610,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -632,7 +632,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -652,7 +652,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -674,7 +674,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -694,7 +694,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -722,7 +722,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -744,7 +744,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -752,19 +752,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de rota do botão "Adicionar": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de rota do botão "Adicionar Contratada": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -786,7 +786,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -806,7 +806,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -828,7 +828,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -848,7 +848,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -870,7 +870,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -890,7 +890,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -915,7 +915,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -928,19 +928,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de desabilitação do Ícone de Voltar à Página: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de desabilitação do Ícone de voltar à Página: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -965,7 +965,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -978,19 +978,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de desabilitação do Ícone de Avançar Página: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de desabilitação do Ícone de avançar página: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1015,7 +1015,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1040,7 +1040,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1060,7 +1060,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1073,19 +1073,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Nome Contratada: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Nome Contratada": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1098,19 +1098,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo CNPJ: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "CNPJ": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1123,19 +1123,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Número SAP: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Número SAP": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1160,7 +1160,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1185,7 +1185,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1210,7 +1210,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1235,7 +1235,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1255,7 +1255,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1267,20 +1267,23 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Teste de ativação do botão "Salvar": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+    <t>Teste de entrada no campo "Número SAP": O campo deve aceitar a entrada de apenas números.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Responsável": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1288,24 +1291,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O botão "Salvar Dados" deve ativar quando todos os campos forem preenchidos corretamente e quando o campo CNPJ conter os 18 caracteres.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada válida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>O campo deve aceitar a entrada de apenas letras do alfabeto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de ativação do botão "Salvar Dados": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1313,27 +1316,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'Contratadas' e os dados devem ser salvos na tabela da Tab "Contratadas".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Caf</t>
-  </si>
-  <si>
-    <r>
-      <t>Teste visualização da tabela:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>O botão "Salvar Dados" deve ativar quando todos os campos forem preenchidos corretamente e quando o campo CNPJ conter os 18 caracteres.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada válida: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1341,6 +1341,34 @@
           </ext>
         </extLst>
       </rPr>
+      <t>Ao preencher corretamente todos os campos, o botão deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'Contratadas' e os dados devem ser salvos na tabela da Tab "Contratadas".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Caf</t>
+  </si>
+  <si>
+    <r>
+      <t>Teste visualização da tabela:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos.</t>
     </r>
     <r>
@@ -1353,7 +1381,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1373,7 +1401,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1395,7 +1423,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1415,7 +1443,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1437,7 +1465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1457,7 +1485,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1479,7 +1507,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1499,7 +1527,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1524,7 +1552,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1549,7 +1577,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1565,19 +1593,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada vazia no campo Título CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada vazia no campo "Título CAF": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1590,19 +1618,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Título CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Título CAF": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1615,19 +1643,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Título do item do CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Título do item do CAF": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1652,7 +1680,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1677,7 +1705,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1702,7 +1730,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1727,7 +1755,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1752,7 +1780,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1760,7 +1788,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'CAF' e os dados devem ser salvos na tabela da Tab "CAFS".</t>
+      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'CAF' e os dados devem ser salvos na tabela da tab "CAF".</t>
     </r>
   </si>
   <si>
@@ -1768,19 +1796,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada vazia no campo Título CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada vazia no campo "Título CAF": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1793,19 +1821,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de Entrada no Campo Título do Item do CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Título do Item do CAF": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1817,20 +1845,23 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Teste de Adição de Itens CAF: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+    <t>Pendente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de adição de itens CAF: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1855,7 +1886,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1863,27 +1894,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados" deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'CAF' e os dados devem ser salvos na tabela da Tab "CAFS".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste visualização da tabela: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados" deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'CAF' e os dados devem ser salvos na tabela da tab "CAF".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de salvamento de dados: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -1891,6 +1919,34 @@
           </ext>
         </extLst>
       </rPr>
+      <t>Mesmo após a exclusão e recriação de itens CAF, clicar no botão 'Salvar Dados' deve salvar as edições na tabela da tab "CAF"."</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste visualização da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos. Deve ser exibidos 10 items por tabela.</t>
     </r>
   </si>
@@ -1905,7 +1961,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1925,7 +1981,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1933,7 +1989,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Ao clicar no botão "Adicionar Boletim". O sistema deve redirecionar para tela "Adicionar Boletim". </t>
+      <t xml:space="preserve">Ao clicar no botão "Adicionar Boletim". O sistema deve navegar para a tela "Adicionar Boletim". </t>
     </r>
   </si>
   <si>
@@ -1947,7 +2003,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1967,7 +2023,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1975,11 +2031,8 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar Boletim".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Adição de dados na aba Dados Base</t>
+      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve navegar para a tela "Editar Boletim".</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1992,7 +2045,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2000,19 +2053,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota na aba Boletim:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de visibilidade:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2020,8 +2073,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na aba "Boletim", a aba deve ficar selecionada e o sitema deve navegar para a tela de "Boletim" para inserir os dados em seus determinados campos.</t>
-    </r>
+      <t xml:space="preserve"> Mover o mouse sobre o título do cabeçalho, deve aparecer um ícone de ordenação de dados na tabela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Adição de dados na aba Dados Base</t>
   </si>
   <si>
     <r>
@@ -2034,7 +2090,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2042,19 +2098,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota na aba Reajuste:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de rota na aba "Dados Base":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2062,7 +2118,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e o sitema deve navegar para a tela  de "Reajuste" para inserir os dados em seus determinados campos.</t>
+      <t xml:space="preserve"> Ao clicar na aba "Dados Base", a aba deve ficar selecionada e o sistema deve navegar para a tela de "Dados Base" para inserir os dados em seus determinados campos.</t>
     </r>
   </si>
   <si>
@@ -2076,7 +2132,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2084,19 +2140,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de entrada vazia:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de rota na aba "Boletim Base":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2104,24 +2160,108 @@
           </ext>
         </extLst>
       </rPr>
+      <t xml:space="preserve"> Ao clicar na aba "Boletim Base", a aba deve ficar selecionada e o sistema deve navegar para a tela de "Boletim Base" para inserir os dados em seus determinados campos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de rota na aba "Reajuste":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e o sistema deve navegar para a tela  de "Reajuste" para inserir os dados em seus determinados campos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de entrada vazia:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t xml:space="preserve"> Deixando o campo de entrada vazio, o botão 'Salvar Dados' deve ficar desativado.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Título Boletim: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Título Boletim": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2134,19 +2274,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Projeto Associado: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Projeto Associado": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2166,7 +2306,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2186,7 +2326,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2199,19 +2339,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Contratada Associada: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Contratada Associada": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2224,19 +2364,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo CAF Associado: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "CAF Associado": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2249,19 +2389,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teste de entrada no campo Status: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de entrada no campo "Status": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2269,24 +2409,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao clicar neste campo, deve-se abrir um dropdown com os seguintes status, "Ativo", "Inativo" e "Pendente", permitindo sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Valor Adiantamento: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Ao clicar neste campo, deve-se abrir um dropdown com os status predefinidos pelo sistema, permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Valor Adiantamento": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2299,6 +2439,31 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Teste de criação de atividades "Pai": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar atividade" deve criar uma nova atividade "Pai"</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <rFont val="Arial"/>
         <charset val="0"/>
@@ -2308,7 +2473,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2316,19 +2481,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de Rota no botão Salvar:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de rota no botão "Salvar Dados":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2340,9 +2505,6 @@
     </r>
   </si>
   <si>
-    <t>Pendente</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2353,7 +2515,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2361,19 +2523,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de Salvamento de Dados:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de salvamento de dados:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2385,385 +2547,7 @@
     </r>
   </si>
   <si>
-    <t>Tab Boletins - Adição de dados na aba Boletim Base</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo de busca de atividades: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. Deve filtrar as atividades de acordo com o que foi digitado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo de filtro de atividades: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve ter a lista de todas as atividades criadas para sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Atividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Valor Atividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada apenas de números. Quando sua hierarquia for de "Pai", campo deve ser desabilitado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Un. Medida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar apenas unidades de medida já pré-definidas pelo sistema, permitindo sua seleção.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Un.: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar apenas as siglas da unidade de medidas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada vazia nos campos referentes a tabela.: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve"> Deixando os campos de entrada vazios, os campos ficarão vermelhos, sinalizando que estão vazios, e o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Criação de Atividades Filha: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no ícone de criação, deve-se criar uma nova atividade com a hierarquia de "Filha" da atividade anterior, e os campos "Valor Atividade" e "Un." da atividade "Pai" devem ser desabilitados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de Exclusão de Atividades Pai: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no ícone de exclusão para uma atividade com hierarquia 'Pai', a exclusão deve ser realizada em cascata.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de adição de uma nova  atividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no link "Adicionar atividade" sera criada um nova atividade "Pai"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de rota no botão Salvar: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecionar para a aba "Reajute" que será automaticamente ativada.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Adição de dados na aba Reajuste</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo %Reajuste: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada apenas de números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo "Aplicar A Partir De Qual Data?": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada apenas de números, no formato de data (dd/mm/aaaa).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo "Metodologia": </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar apenas as entradas ja predefininidas pelo sistema.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de criação de novos reajustes: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao clicar no link "Adicionar reajuste" deve ser criado um novo reajuste com seus respectivos campos.</t>
-    </r>
+    <t>Tab Boletins - Edição de dados na aba Dados base</t>
   </si>
   <si>
     <r>
@@ -2776,7 +2560,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2784,19 +2568,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de funcionalidade da organização:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de rota na aba "Dados Base":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2804,11 +2588,8 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no icone "seta" deve organizar.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Edição de dados na aba Dados base</t>
+      <t xml:space="preserve"> Ao clicar na aba "Dados Base", a aba deve ficar selecionada e o sistema deve navegar para a tela de "Dados Base" para inserir os dados em seus determinados campos.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2821,7 +2602,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2829,19 +2610,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota na aba Boletim:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de rota na aba "Reajuste":</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2849,7 +2630,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na aba "Boletim", a aba deve ficar selecionada e também ser redirecionado para a tela de "Boletim" para inserir os dados em seus determinados campos.</t>
+      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e também ser redirecionado para a tela de "Reajuste" para inserir os dados em seus determinados campos.</t>
     </r>
   </si>
   <si>
@@ -2863,7 +2644,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2871,19 +2652,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de rota na aba Reajuste:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de entrada vazia:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2891,10 +2672,33 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar na aba "Reajuste", a aba deve ficar selecionada e também ser redirecionado para a tela de "Reajuste" para inserir os dados em seus determinados campos.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> Deixando os possiveis campos de entrada vazios, o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Projeto Associado": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">Ao clicar nesse campo </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2905,7 +2709,82 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>deve abrir um dropdown com projetos associados, permitindo a sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "CAF Associado":  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar neste campo, deve-se abrir um dropdown que exibe as CAF associadas criadas na tela de "Criação de CAFS", permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Status": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar neste campo, deve-se abrir um dropdown com os status predefinindos pelo sistema.</t>
+    </r>
+  </si>
+  <si>
+    <t>Teste de entrada no campo "Valor Adiantamento": O campo deve aceitar apenas a entrada de números.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2913,19 +2792,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de entrada vazia:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de rota no botão "Salvar Dados:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2933,33 +2812,27 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Deixando o campo de entrada vazio, o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab Boletins - Edição de dados na aba Boletim</t>
-  </si>
-  <si>
-    <t>Tab Boletins - Edição de dados na aba Reajuste</t>
-  </si>
-  <si>
-    <t>Tab projeto</t>
-  </si>
-  <si>
-    <r>
-      <t>Teste visualização da tabela:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve"> O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecioar para a aba "Boletim" que será automaticamente ativada.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Adição de dados na aba Boletim Base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo de busca de atividades: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2967,6 +2840,650 @@
           </ext>
         </extLst>
       </rPr>
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. Deve filtrar as atividades de acordo com o que foi digitado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo de filtro de atividades: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve ter a lista de todas as atividades criadas para sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Atividade": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Valor Atividade": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas números. Quando a hierarquia for "Pai", o campo deve ser desabilitado e deve somar os valores das atividades hierárquicas subsequentes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Un. Medida": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas unidades de medida já predefinidos pelo sistema, permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Un.": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas a entradas de números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia nos campos referentes a "Atividade": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Deixando os campos de entrada vazios, o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de criação de atividades "Filha":  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no ícone de criação, deve-se criar uma nova atividade com a hierarquia de "Filha" da atividade anterior, e os campos "Valor Atividade" e "Un." da atividade "Pai" devem ser desabilitados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Exclusão de atividades "Pai": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no ícone de exclusão para uma atividade com hierarquia 'Pai', a exclusão deve ser realizada em cascata.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de Exclusão das atividades: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar no ícone "Deletar" todos os campos de preenchimento de dados da atividade devem ser apagados e o botão 'Salvar Dados' deve ser desabilitado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de adição de uma nova  atividade: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar atividade" sera criada um nova atividade "Pai"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de rota no botão "Salvar Dados": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecionar para a aba "Reajuste" que será automaticamente ativada.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Edição de dados na aba Boletim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Valor Atividade": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada apenas de números. Quando sua hierarquia for de "Pai", campo deve ser desabilitado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Un. Medida" </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas unidades de medida já predefinicas pelo sistema, permitindo sua seleção.</t>
+    </r>
+  </si>
+  <si>
+    <t>Teste de entrada no campo "Un.": O campo deve aceitar apenas a entradas de números.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de criação de atividades "Filha": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no ícone de criação, deve-se criar uma nova atividade com a hierarquia de "Filha" da atividade anterior, e os campos "Valor Atividade" e "Un." da atividade "Pai" devem ser desabilitados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de rota no botão "Salvar Dados": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O botão "Salvar Dados" será ativado, quando todos os campos forem preenchidos corretamente, ao clicar no botão deve armazenar os dados e redirecionar para a aba "Reajute" que será automaticamente ativada.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Adição de dados na aba Reajuste</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "%Reajuste": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada apenas de números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Aplicar A Partir De Qual Data?": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada apenas de números, no formato de data (dd/mm/aaaa).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Metodologia": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar apenas as entradas ja predefininidas pelo sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de criação de novos reajustes: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao clicar no link "Adicionar reajuste" deve ser criado um novo reajuste com seus respectivos campos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de comportamento ícone:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar no icone "seta" deve organizar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de salvamento de dados:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> O sistema permitirá o salvamento de dados, quando todos os campos forem preenchidos corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab Boletins - Edição de dados na aba Reajuste</t>
+  </si>
+  <si>
+    <t>Teste de entrada no campo "%Reajuste": O campo deve aceitar a entrada apenas de números.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Teste de funcionalidade da organização:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Ao clicar no icone "seta" deve organizar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab projeto</t>
+  </si>
+  <si>
+    <r>
+      <t>Teste visualização da tabela:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t>Os dados na tabela devem ser exibidos de forma organizada e com seus respectivos formatos.</t>
     </r>
     <r>
@@ -2979,7 +3496,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -2999,7 +3516,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3021,7 +3538,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3041,7 +3558,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3049,7 +3566,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Ao clicar no botão "Adicionar Projeto". O sistema deve redirecionar para tela "Adicionar PROJETO". </t>
+      <t xml:space="preserve">Ao clicar no botão "Adicionar Projeto". O sistema deve navegar para tela "Adicionar Projeto". </t>
     </r>
   </si>
   <si>
@@ -3063,7 +3580,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3083,7 +3600,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3091,144 +3608,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar PROJETO".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab projeto - Adicionar projeto</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada vazia no campo Nome do projeto: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Deixando o campo de entrada vazio, o campo ficará vermelhos, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Nome do projeto: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada no campo Número sap: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de entrada válida: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve redirecionar para a tela 'PROJETO' e os dados devem ser salvos na tabela da Tab "PROJETO".</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab projeto - Editar projeto</t>
-  </si>
-  <si>
-    <t>Boletim de Medição - Roteiro de Testes</t>
-  </si>
-  <si>
-    <t>Selecionar item menu</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de exibição do menu: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs weight="bold"/>
-              <pm:ea weight="bold"/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O menu lateral deve ser exibido corretamente ao logar no sistema.</t>
+      <t xml:space="preserve"> Ao clicar no botão "Editar". O sistema deve redirecionar para tela "Editar Projeto".</t>
     </r>
   </si>
   <si>
@@ -3242,7 +3622,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3250,19 +3630,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de clique no menu: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de comportamento do ícone da organização da tabela:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3270,24 +3650,27 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Ao clicar na opção "Dashboard" no menu, o sistema deve navegar para a página do dashboard.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de responsividade: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve"> O ícone ao lado de cada título do cabeçalho tem a função de organizar os dados de forma crescente ou decrescente em todas as páginas da tabela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab projeto - Adicionar projeto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia no campo Nome do Projeto: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3295,27 +3678,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O menu deve ser exibido corretamente em diferentes tamanhos de tela.</t>
-    </r>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teste de carregamento do vídeo: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Deixando o campo de entrada vazio,o campo mudará de cor, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Nome do Projeto": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3323,7 +3703,116 @@
           </ext>
         </extLst>
       </rPr>
-      <t>O vídeo do YouTube deve carregar corretamente quando a seção correspondente é acessada.</t>
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada no campo "Número SAP": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O campo deve aceitar a entrada de letras do alfabeto, caracteres especiais e números.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada válida: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Ao preencher corretamente todos os campos, o botão "Salvar Dados"  deve ser ativado. Ao clicar no botão, o sistema deve navegar para a tela 'PROJETO' e os dados devem ser salvos na tabela da Tab "PROJETO".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab projeto - Editar projeto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de entrada vazia no campo "Nome do Projeto": </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Deixando o campo de entrada vazio,o campo mudará de cor, sinalizando que esta vazio, e o botão 'Salvar Dados' deve ficar desativado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Boletim de Medição - Roteiro de Testes</t>
+  </si>
+  <si>
+    <t>Selecionar item menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de exibição do menu: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O menu lateral deve ser exibido corretamente ao logar no sistema.</t>
     </r>
   </si>
   <si>
@@ -3337,7 +3826,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3345,19 +3834,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve">Teste de controle de reprodução: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de clique no menu: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3365,24 +3854,24 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Os controles de reprodução do vídeo devem funcionar corretamente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Teste de responsividade:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Ao clicar na opção "Dashboard" no menu, o sistema deve navegar para a página do dashboard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de responsividade: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs weight="bold"/>
               <pm:ea weight="bold"/>
@@ -3390,7 +3879,35 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O vídeo deve se adaptar corretamente a diferentes tamanhos de tela.</t>
+      <t>O menu deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de carregamento do vídeo: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O vídeo do YouTube deve carregar corretamente quando a seção correspondente é acessada.</t>
     </r>
   </si>
   <si>
@@ -3404,7 +3921,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3412,19 +3929,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de qualidade de vídeo:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t xml:space="preserve">Teste de controle de reprodução: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3432,11 +3949,33 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O vídeo deve ser capaz de rodar em diferentes qualidades, de acordo com a configuração do usuário e a disponibilidade de largura de banda da internet.</t>
-    </r>
-  </si>
-  <si>
-    <t>Botão de ajuda e modal</t>
+      <t>Os controles de reprodução do vídeo devem funcionar corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs weight="bold"/>
+              <pm:ea weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> O vídeo deve se adaptar corretamente a diferentes tamanhos de tela.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3449,7 +3988,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3457,19 +3996,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de visibilidade do botão:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de qualidade de vídeo:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3477,8 +4016,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O botão de ajuda deve estar visível e claramente identificável.</t>
-    </r>
+      <t xml:space="preserve"> O vídeo deve ser capaz de rodar em diferentes qualidades, de acordo com a configuração do usuário e a disponibilidade de largura de banda da internet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Botão de ajuda e modal</t>
   </si>
   <si>
     <r>
@@ -3491,7 +4033,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3499,19 +4041,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de abertura do modal:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de visibilidade do botão:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3519,7 +4061,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Ao clicar no botão de ajuda, o modal correspondente deve abrir corretamente.</t>
+      <t xml:space="preserve"> O botão de ajuda deve estar visível e claramente identificável.</t>
     </r>
   </si>
   <si>
@@ -3533,7 +4075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3541,19 +4083,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de exibição das informações:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de abertura do modal:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3561,7 +4103,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> As informações dentro do modal devem ser claras e legíveis.</t>
+      <t xml:space="preserve"> Ao clicar no botão de ajuda, o modal correspondente deve abrir corretamente.</t>
     </r>
   </si>
   <si>
@@ -3575,7 +4117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3583,19 +4125,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de fechamento do modal:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de exibição das informações:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3603,7 +4145,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O modal deve ser fechado ao clicar no botão de fechamento correspondente.</t>
+      <t xml:space="preserve"> As informações dentro do modal devem ser claras e legíveis.</t>
     </r>
   </si>
   <si>
@@ -3617,7 +4159,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3625,19 +4167,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de responsividade geral:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de fechamento do modal:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3645,11 +4187,8 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Tanto o botão quanto o modal devem se adaptar a diferentes tamanhos de tela.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gráficos</t>
+      <t xml:space="preserve"> O modal deve ser fechado ao clicar no botão de fechamento correspondente.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3662,7 +4201,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3670,19 +4209,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de carregamento dos gráficos:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de responsividade geral:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3690,8 +4229,11 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Os gráficos devem ser carregados corretamente quando a seção correspondente é acessada.</t>
-    </r>
+      <t xml:space="preserve"> Tanto o botão quanto o modal devem se adaptar a diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gráficos</t>
   </si>
   <si>
     <r>
@@ -3704,7 +4246,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3712,19 +4254,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de interatividade dos gráficos:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de carregamento dos gráficos:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3732,7 +4274,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> As funcionalidades interativas dos gráficos (tooltips, detalhamento ao clicar, etc) devem funcionar corretamente.</t>
+      <t xml:space="preserve"> Os gráficos devem ser carregados corretamente quando a seção correspondente é acessada.</t>
     </r>
   </si>
   <si>
@@ -3746,7 +4288,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3754,19 +4296,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de responsividade:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de interatividade dos gráficos:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3774,7 +4316,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> Os gráficos devem se adaptar corretamente a diferentes tamanhos de tela.</t>
+      <t xml:space="preserve"> As funcionalidades interativas dos gráficos (tooltips, detalhamento ao clicar, etc) devem funcionar corretamente.</t>
     </r>
   </si>
   <si>
@@ -3788,7 +4330,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3796,19 +4338,19 @@
           </ext>
         </extLst>
       </rPr>
-      <t>Teste de filtragem do grafico:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3816,7 +4358,7 @@
           </ext>
         </extLst>
       </rPr>
-      <t xml:space="preserve"> O gráfico deve filtrar corretamente o que for selecionado.</t>
+      <t xml:space="preserve"> Os gráficos devem se adaptar corretamente a diferentes tamanhos de tela.</t>
     </r>
   </si>
   <si>
@@ -3830,7 +4372,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3838,6 +4380,48 @@
           </ext>
         </extLst>
       </rPr>
+      <t>Teste de filtragem do grafico:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> O gráfico deve filtrar corretamente o que for selecionado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="10"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
+              <pm:latin face="Arial" sz="200" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
       <t>Teste de precisão dos dados:</t>
     </r>
     <r>
@@ -3850,7 +4434,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1688519974">
+            <pm:charSpec xmlns:pm="smNativeData" id="1688596190">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3876,7 +4460,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;R$&quot;_-;\-* #,##0.00\ &quot;R$&quot;_-;_-* &quot;-&quot;??\ &quot;R$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _R_$_-;\-* #,##0.00\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -3884,7 +4468,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3900,7 +4484,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" fgClr="F3F3F3" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" fgClr="F3F3F3" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -3916,7 +4500,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3932,7 +4516,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" fgClr="007F00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" fgClr="007F00" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3948,7 +4532,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" fgClr="0000FF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" fgClr="0000FF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3964,7 +4548,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -3979,7 +4563,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1688519974" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -3987,8 +4571,55 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FFF3F3F3"/>
+      <sz val="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" fgClr="F3F3F3" ulstyle="none">
+            <pm:latin face="Arial" sz="280" lang="default" weight="bold"/>
+            <pm:cs face="Arial" sz="280" lang="default"/>
+            <pm:ea face="Arial" sz="280" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" ulstyle="none">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Arial" sz="200" lang="default"/>
+            <pm:ea face="Arial" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FFF3F3F3"/>
+      <sz val="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1688596190" fgClr="F3F3F3" ulstyle="none">
+            <pm:latin face="Arial" sz="280" lang="default" weight="bold"/>
+            <pm:cs face="Arial" sz="280" lang="default"/>
+            <pm:ea face="Arial" sz="280" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4001,7 +4632,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -4012,7 +4643,29 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00F7F7F7" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00CCCCCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -4023,29 +4676,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00F7F7F7" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00CCCCCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -4056,18 +4687,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00434343" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00434343" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -4078,24 +4698,46 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="0" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFDEDEDE"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1688519974" type="1" fgLvl="0" fgClr="00F2F2F2" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="13" fgClr="00000000" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="0" fgClr="00000000" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1688596190" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -4111,7 +4753,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4130,7 +4772,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4149,7 +4791,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4168,7 +4810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4187,7 +4829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4206,7 +4848,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4225,7 +4867,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4244,7 +4886,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4263,7 +4905,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4282,7 +4924,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1688519974"/>
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1688596190"/>
         </ext>
       </extLst>
     </border>
@@ -4290,7 +4951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4303,42 +4964,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4346,29 +4996,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4378,14 +5071,20 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1688519974" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1688596190" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1688519974" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1688596190" count="10">
         <pm:color name="Cor 24" rgb="F3F3F3"/>
         <pm:color name="Cor 25" rgb="434343"/>
         <pm:color name="Cor 26" rgb="F2F2F2"/>
         <pm:color name="Cor 27" rgb="F7F7F7"/>
+        <pm:color name="Cor 28" rgb="9C9C9C"/>
+        <pm:color name="Cor 29" rgb="C6C6C6"/>
+        <pm:color name="Cor 30" rgb="E3E3E3"/>
+        <pm:color name="Cor 31" rgb="DEDEDE"/>
+        <pm:color name="Cor 32" rgb="E7E7E7"/>
+        <pm:color name="Cor 33" rgb="E0E0E0"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -4651,101 +5350,101 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G1157"/>
+  <dimension ref="A1:G1164"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B16" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.567568" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="53.567568" customWidth="1"/>
-    <col min="4" max="4" width="198.711712" customWidth="1"/>
+    <col min="4" max="4" width="205.468468" customWidth="1"/>
     <col min="5" max="5" width="38.144144" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="8" t="n">
+      <c r="A4" s="6"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="8" t="n">
+      <c r="A5" s="6"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="8" t="n">
+      <c r="A6" s="6"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="8" t="n">
+      <c r="A7" s="6"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4753,7 +5452,7 @@
       <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -4762,20 +5461,20 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4783,254 +5482,254 @@
       <c r="A10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="39"/>
+      <c r="C11" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="3" t="n">
+      <c r="B12" s="39"/>
+      <c r="C12" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="3" t="n">
+      <c r="B13" s="39"/>
+      <c r="C13" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="3" t="n">
+      <c r="B14" s="39"/>
+      <c r="C14" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="3" t="n">
+      <c r="B16" s="39"/>
+      <c r="C16" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="3" t="n">
+      <c r="B17" s="39"/>
+      <c r="C17" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="3" t="n">
+      <c r="B18" s="39"/>
+      <c r="C18" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="8" t="n">
+      <c r="A20" s="6"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="8" t="n">
+      <c r="A21" s="6"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="8" t="n">
+      <c r="A22" s="6"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="8" t="n">
+      <c r="A23" s="6"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="8" t="n">
+      <c r="A25" s="6"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="8" t="n">
+      <c r="A26" s="6"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8" t="n">
+      <c r="A27" s="6"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8" t="n">
+      <c r="A28" s="6"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5038,407 +5737,407 @@
       <c r="A29" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.50" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="7" t="n">
+      <c r="B30" s="40"/>
+      <c r="C30" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.50" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="7" t="n">
+      <c r="B31" s="40"/>
+      <c r="C31" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.50" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="7" t="n">
+      <c r="B32" s="40"/>
+      <c r="C32" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.50" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="7" t="n">
+      <c r="B33" s="40"/>
+      <c r="C33" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="7" t="n">
+      <c r="B35" s="40"/>
+      <c r="C35" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="8" t="n">
+      <c r="C40" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="10"/>
+      <c r="C41" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="7" t="n">
+      <c r="B43" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="7" t="n">
+      <c r="B44" s="39"/>
+      <c r="C44" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="7" t="n">
+      <c r="B45" s="39"/>
+      <c r="C45" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="7" t="n">
+      <c r="B46" s="39"/>
+      <c r="C46" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="7" t="n">
+      <c r="B47" s="39"/>
+      <c r="C47" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="15" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="7" t="n">
+      <c r="B49" s="39"/>
+      <c r="C49" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="15" t="s">
+      <c r="D49" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7" t="n">
+      <c r="B50" s="39"/>
+      <c r="C50" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="8" t="n">
+      <c r="B51" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="8" t="n">
+      <c r="A52" s="6"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="8" t="n">
+      <c r="A53" s="6"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="8" t="n">
+      <c r="A54" s="6"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="8" t="n">
+      <c r="A55" s="6"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="8" t="n">
+      <c r="A57" s="6"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="8" t="n">
+      <c r="A58" s="6"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5446,1311 +6145,1372 @@
       <c r="A59" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="7" t="n">
+      <c r="B59" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="29" t="s">
+      <c r="D59" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="7" t="n">
+      <c r="B60" s="39"/>
+      <c r="C60" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="29" t="s">
+      <c r="D60" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="7" t="n">
+      <c r="B61" s="39"/>
+      <c r="C61" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>6</v>
+      <c r="D61" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="7" t="n">
+      <c r="B62" s="39"/>
+      <c r="C62" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="29" t="s">
+      <c r="D62" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="7" t="n">
+      <c r="B63" s="39"/>
+      <c r="C63" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="29" t="s">
+      <c r="D63" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="29" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="7" t="n">
+      <c r="B65" s="39"/>
+      <c r="C65" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="29" t="s">
+      <c r="D65" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="7" t="n">
+      <c r="B66" s="39"/>
+      <c r="C66" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>6</v>
+      <c r="D66" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="3"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A68" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B68" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A76" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="5" t="n">
+    </row>
+    <row r="88" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="28" t="n">
+        <v>13</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A89" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="5" t="n">
+      <c r="D89" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A90" s="23"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="5" t="n">
+      <c r="D90" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A91" s="23"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="5" t="n">
+      <c r="D91" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A92" s="23"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D92" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A93" s="23"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A94" s="23"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A95" s="23"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A96" s="23"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A97" s="23"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A98" s="23"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A99" s="23"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A100" s="23"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A101" s="23"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A102" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A106" s="28"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A111" s="28"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A114" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A115" s="6"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A116" s="6"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A117" s="6"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A118" s="6"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A119" s="6"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A120" s="6"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A121" s="6"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A122" s="6"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A123" s="6"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A124" s="6"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A125" s="6"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="35" t="n">
+        <v>12</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A126" s="6"/>
+      <c r="B126" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A127" s="6"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A128" s="6"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A129" s="6"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A131" s="6"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A132" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A133" s="6"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A135" s="6"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A136" s="6"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A137" s="6"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A138" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A139" s="6"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E139" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A140" s="6"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A141" s="6"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D141" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="5" t="n">
+      <c r="E141" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A142" s="6"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A72" s="8"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="5" t="n">
+      <c r="D142" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A143" s="6"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A144" s="6"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A74" s="8"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="5" t="n">
+      <c r="D144" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A145" s="6"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D145" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A75" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="7" t="n">
+      <c r="E145" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A146" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B146" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A76" s="8"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="7" t="n">
+      <c r="D146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A147" s="6"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A77" s="8"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="7" t="n">
+      <c r="D147" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A78" s="8"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="7" t="n">
+      <c r="D148" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A149" s="6"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A79" s="8"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="7" t="n">
+      <c r="D149" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A150" s="6"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A80" s="8"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A81" s="8"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A82" s="8"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A83" s="8"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="D150" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A151" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B151" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A84" s="8"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A86" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="5" t="n">
+      <c r="E151" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A152" s="6"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A88" s="8"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="5" t="n">
+      <c r="D152" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A153" s="6"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A89" s="8"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="5" t="n">
+      <c r="D153" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A154" s="6"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D89" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A90" s="8"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="5" t="n">
+      <c r="D154" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A155" s="6"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="D90" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A91" s="8"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A92" s="8"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A93" s="8"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A94" s="8"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A95" s="8"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A96" s="8"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A97" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A98" s="8"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A99" s="8"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A100" s="8"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A101" s="8"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A102" s="8"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A103" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A104" s="8"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A105" s="8"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A106" s="8"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A107" s="8"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A108" s="8"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A109" s="8"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A110" s="8"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A111" s="8"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A112" s="8"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A113" s="8"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A114" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A115" s="8"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A116" s="8"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A117" s="8"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A118" s="8"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A119" s="8"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A120" s="8"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A121" s="8"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A122" s="8"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A123" s="8"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A124" s="8"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A125" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C125" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A126" s="8"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A127" s="8"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A128" s="8"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A129" s="8"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A130" s="8"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A131" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C131" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A132" s="8"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A133" s="8"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A134" s="8"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A135" s="8"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A136" s="8"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A137" s="8"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A138" s="8"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A139" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C139" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A140" s="8"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A141" s="8"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A142" s="8"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A143" s="8"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A144" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C144" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A145" s="8"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A146" s="8"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A147" s="8"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A148" s="8"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="E149" s="14"/>
-    </row>
-    <row r="150" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="E150" s="14"/>
-    </row>
-    <row r="151" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="E151" s="14"/>
-    </row>
-    <row r="152" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="E152" s="14"/>
-    </row>
-    <row r="153" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="E153" s="14"/>
-    </row>
-    <row r="154" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="E154" s="14"/>
-    </row>
-    <row r="155" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="E155" s="19"/>
+      <c r="D155" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="32" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="156" spans="1:5" ht="12.75" customHeight="1">
       <c r="A156" s="2"/>
-      <c r="E156" s="19"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157" spans="1:5" ht="12.75" customHeight="1">
       <c r="A157" s="2"/>
-      <c r="E157" s="19"/>
+      <c r="E157" s="11"/>
     </row>
     <row r="158" spans="1:5" ht="12.75" customHeight="1">
       <c r="A158" s="2"/>
-      <c r="E158" s="19"/>
+      <c r="E158" s="11"/>
     </row>
     <row r="159" spans="1:5" ht="12.75" customHeight="1">
       <c r="A159" s="2"/>
-      <c r="E159" s="19"/>
+      <c r="E159" s="11"/>
     </row>
     <row r="160" spans="1:5" ht="12.75" customHeight="1">
       <c r="A160" s="2"/>
-      <c r="E160" s="19"/>
+      <c r="E160" s="11"/>
     </row>
     <row r="161" spans="1:5" ht="12.75" customHeight="1">
       <c r="A161" s="2"/>
-      <c r="E161" s="19"/>
+      <c r="E161" s="11"/>
     </row>
     <row r="162" spans="1:5" ht="12.75" customHeight="1">
       <c r="A162" s="2"/>
-      <c r="E162" s="19"/>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="1:5" ht="12.75" customHeight="1">
       <c r="A163" s="2"/>
-      <c r="E163" s="19"/>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="1:5" ht="12.75" customHeight="1">
       <c r="A164" s="2"/>
-      <c r="E164" s="19"/>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="1:5" ht="12.75" customHeight="1">
       <c r="A165" s="2"/>
-      <c r="E165" s="19"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="1:5" ht="12.75" customHeight="1">
       <c r="A166" s="2"/>
-      <c r="E166" s="1"/>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="1:5" ht="12.75" customHeight="1">
       <c r="A167" s="2"/>
-      <c r="E167" s="1"/>
+      <c r="E167" s="15"/>
     </row>
     <row r="168" spans="1:5" ht="12.75" customHeight="1">
       <c r="A168" s="2"/>
-      <c r="E168" s="1"/>
+      <c r="E168" s="15"/>
     </row>
     <row r="169" spans="1:5" ht="12.75" customHeight="1">
       <c r="A169" s="2"/>
-      <c r="E169" s="1"/>
+      <c r="E169" s="15"/>
     </row>
     <row r="170" spans="1:5" ht="12.75" customHeight="1">
       <c r="A170" s="2"/>
-      <c r="E170" s="1"/>
+      <c r="E170" s="15"/>
     </row>
     <row r="171" spans="1:5" ht="12.75" customHeight="1">
       <c r="A171" s="2"/>
-      <c r="E171" s="1"/>
+      <c r="E171" s="15"/>
     </row>
     <row r="172" spans="1:5" ht="12.75" customHeight="1">
       <c r="A172" s="2"/>
-      <c r="E172" s="1"/>
+      <c r="E172" s="15"/>
     </row>
     <row r="173" spans="1:5" ht="12.75" customHeight="1">
       <c r="A173" s="2"/>
@@ -6826,83 +7586,83 @@
     </row>
     <row r="191" spans="1:5" ht="12.75" customHeight="1">
       <c r="A191" s="2"/>
-      <c r="E191" s="19"/>
+      <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" ht="12.75" customHeight="1">
       <c r="A192" s="2"/>
-      <c r="E192" s="19"/>
+      <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" ht="12.75" customHeight="1">
       <c r="A193" s="2"/>
-      <c r="E193" s="19"/>
+      <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" ht="12.75" customHeight="1">
       <c r="A194" s="2"/>
-      <c r="E194" s="19"/>
+      <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" ht="12.75" customHeight="1">
       <c r="A195" s="2"/>
-      <c r="E195" s="19"/>
+      <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" ht="12.75" customHeight="1">
       <c r="A196" s="2"/>
-      <c r="E196" s="19"/>
+      <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" ht="12.75" customHeight="1">
       <c r="A197" s="2"/>
-      <c r="E197" s="19"/>
+      <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" ht="12.75" customHeight="1">
       <c r="A198" s="2"/>
-      <c r="E198" s="19"/>
+      <c r="E198" s="15"/>
     </row>
     <row r="199" spans="1:5" ht="12.75" customHeight="1">
       <c r="A199" s="2"/>
-      <c r="E199" s="19"/>
+      <c r="E199" s="15"/>
     </row>
     <row r="200" spans="1:5" ht="12.75" customHeight="1">
       <c r="A200" s="2"/>
-      <c r="E200" s="19"/>
+      <c r="E200" s="15"/>
     </row>
     <row r="201" spans="1:5" ht="12.75" customHeight="1">
       <c r="A201" s="2"/>
-      <c r="E201" s="19"/>
+      <c r="E201" s="15"/>
     </row>
     <row r="202" spans="1:5" ht="12.75" customHeight="1">
       <c r="A202" s="2"/>
-      <c r="E202" s="19"/>
+      <c r="E202" s="15"/>
     </row>
     <row r="203" spans="1:5" ht="12.75" customHeight="1">
       <c r="A203" s="2"/>
-      <c r="E203" s="19"/>
+      <c r="E203" s="15"/>
     </row>
     <row r="204" spans="1:5" ht="12.75" customHeight="1">
       <c r="A204" s="2"/>
-      <c r="E204" s="1"/>
+      <c r="E204" s="15"/>
     </row>
     <row r="205" spans="1:5" ht="12.75" customHeight="1">
       <c r="A205" s="2"/>
-      <c r="E205" s="1"/>
+      <c r="E205" s="15"/>
     </row>
     <row r="206" spans="1:5" ht="12.75" customHeight="1">
       <c r="A206" s="2"/>
-      <c r="E206" s="1"/>
+      <c r="E206" s="15"/>
     </row>
     <row r="207" spans="1:5" ht="12.75" customHeight="1">
       <c r="A207" s="2"/>
-      <c r="E207" s="1"/>
+      <c r="E207" s="15"/>
     </row>
     <row r="208" spans="1:5" ht="12.75" customHeight="1">
       <c r="A208" s="2"/>
-      <c r="E208" s="1"/>
+      <c r="E208" s="15"/>
     </row>
     <row r="209" spans="1:5" ht="12.75" customHeight="1">
       <c r="A209" s="2"/>
-      <c r="E209" s="1"/>
+      <c r="E209" s="15"/>
     </row>
     <row r="210" spans="1:5" ht="12.75" customHeight="1">
       <c r="A210" s="2"/>
-      <c r="E210" s="1"/>
+      <c r="E210" s="15"/>
     </row>
     <row r="211" spans="1:5" ht="12.75" customHeight="1">
       <c r="A211" s="2"/>
@@ -10172,31 +10932,31 @@
       <c r="A1027" s="2"/>
       <c r="E1027" s="1"/>
     </row>
-    <row r="1028" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1028" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1028" s="2"/>
       <c r="E1028" s="1"/>
     </row>
-    <row r="1029" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1029" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1029" s="2"/>
       <c r="E1029" s="1"/>
     </row>
-    <row r="1030" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1030" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1030" s="2"/>
       <c r="E1030" s="1"/>
     </row>
-    <row r="1031" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1031" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1031" s="2"/>
       <c r="E1031" s="1"/>
     </row>
-    <row r="1032" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1032" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1032" s="2"/>
       <c r="E1032" s="1"/>
     </row>
-    <row r="1033" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1033" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1033" s="2"/>
       <c r="E1033" s="1"/>
     </row>
-    <row r="1034" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1034" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1034" s="2"/>
       <c r="E1034" s="1"/>
     </row>
@@ -10328,25 +11088,32 @@
       <c r="A1066" s="2"/>
       <c r="E1066" s="1"/>
     </row>
-    <row r="1067" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1067" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1067" s="2"/>
       <c r="E1067" s="1"/>
     </row>
-    <row r="1068" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1068" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1068" s="2"/>
       <c r="E1068" s="1"/>
     </row>
-    <row r="1069" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1069" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1069" s="2"/>
       <c r="E1069" s="1"/>
     </row>
-    <row r="1070" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1070" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1070" s="2"/>
       <c r="E1070" s="1"/>
     </row>
-    <row r="1071" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1071" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1071" s="2"/>
       <c r="E1071" s="1"/>
     </row>
-    <row r="1072" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1072" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1072" s="2"/>
       <c r="E1072" s="1"/>
     </row>
-    <row r="1073" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1073" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1073" s="2"/>
       <c r="E1073" s="1"/>
     </row>
     <row r="1074" spans="5:5" ht="15.75" customHeight="1">
@@ -10600,6 +11367,27 @@
     </row>
     <row r="1157" spans="5:5" ht="15.75" customHeight="1">
       <c r="E1157" s="1"/>
+    </row>
+    <row r="1158" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1158" s="1"/>
+    </row>
+    <row r="1159" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1159" s="1"/>
+    </row>
+    <row r="1160" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1160" s="1"/>
+    </row>
+    <row r="1161" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1161" s="1"/>
+    </row>
+    <row r="1162" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1162" s="1"/>
+    </row>
+    <row r="1163" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1163" s="1"/>
+    </row>
+    <row r="1164" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1164" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -10622,36 +11410,36 @@
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="B86:B96"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A103:A113"/>
-    <mergeCell ref="B103:B113"/>
-    <mergeCell ref="A114:A124"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="B131:B138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="E155:E165"/>
-    <mergeCell ref="E166:E190"/>
-    <mergeCell ref="E191:E203"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="A76:A88"/>
+    <mergeCell ref="B76:B88"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="B89:B101"/>
+    <mergeCell ref="A102:A113"/>
+    <mergeCell ref="B102:B113"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B114:B125"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="A138:A145"/>
+    <mergeCell ref="B138:B145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="E162:E172"/>
+    <mergeCell ref="E173:E197"/>
+    <mergeCell ref="E198:E210"/>
   </mergeCells>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1688519974" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1688596190" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10660,16 +11448,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1688596190" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1688596190" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688596190" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688596190" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688519974" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688596190" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10695,344 +11483,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>142</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="8" t="n">
+        <v>146</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="8" t="n">
+        <v>151</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="8" t="n">
+        <v>157</v>
+      </c>
+      <c r="C21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>83</v>
+        <v>161</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>83</v>
+        <v>162</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="4:4">
@@ -11057,7 +11843,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1688519974" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1688596190" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11066,16 +11852,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1688519974" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1688519974" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1688596190" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1688596190" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688596190" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1688596190" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688519974" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1688596190" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
+++ b/Boletim_de_Medição_-_Roteiro_de_Testes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\source\LojaInterativa\taesa-boletimmedicao-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1C188-0711-4B72-A3AF-20303DEDBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D2B48-04AE-4665-A282-DD4D703099D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="966" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configurações" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Boletim Detalhado" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="202">
   <si>
     <t xml:space="preserve">                                                                                                           Boletim de Medição - Roteiro de Testes</t>
   </si>
@@ -2359,6 +2360,484 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Ao clicar no botão a ação correspondente deve ser realizada corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tab dados</t>
+  </si>
+  <si>
+    <t>Tab boletim</t>
+  </si>
+  <si>
+    <t>Tab comentários</t>
+  </si>
+  <si>
+    <t>Tab CAF</t>
+  </si>
+  <si>
+    <t>Tab notas fiscais</t>
+  </si>
+  <si>
+    <t>Tab relatório financeiro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teste de rota do tab "Dados": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ao clicar na tab "Dados". O sistema deve navegar para tela "Dados". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teste de rota do tab "Comentários": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ao clicar na tab "Comentários". O sistema deve navegar para tela "Comentários". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teste de rota do tab "CAF": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ao clicar na tab "CAF". O sistema deve navegar para tela "CAF". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teste de rota do tab "Notas fiscais": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ao clicar na tab "Notas fiscais". O sistema deve navegar para tela "Notas fiscais". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Teste de rota do tab "Relatório financeiro": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ao clicar na tab "Relatório financeiro". O sistema deve navegar para tela "Relatório financeiro". </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de estado ativo/passivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Quando navegar para esta "tab dados" esta tab deve ser realçada e indicada como a página ativa atualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de estado ativo/passivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Quando navegar para esta "tab comentários" esta tab deve ser realçada e indicada como a página ativa atualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de estado ativo/passivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Quando navegar para esta "tab caf" esta tab deve ser realçada e indicada como a página ativa atualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de estado ativo/passivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Quando navegar para esta "tab notas fiscais" esta tab deve ser realçada e indicada como a página ativa atualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de estado ativo/passivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Quando navegar para esta "tab relatório financeiro" esta tab deve ser realçada e indicada como a página ativa atualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de exibição do status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O status de cada boletim e seus passos correspondentes devem ser exibidos corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de atualização do status:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> O status de cada boletim deve ser atualizado corretamente conforme os passos são concluídos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A "tab dados" deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A "tab comentários" deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A "tab caf" deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A "tab notas fiscais" deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de responsividade:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A "tab relatório financeiro" deve ser exibido corretamente em diferentes tamanhos de tela.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de exibição dos dados:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Todos os dados relevantes do boletim devem ser exibidos corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de correspondência dos dados: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cada dado exibido deve corresponder à informação correta do boletim.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de exibição dos responsáveis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Os responsáveis relevantes para o boletim devem ser exibidos corretamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de correspondência dos responsáveis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cada responsável exibido deve corresponder à pessoa correta associada ao boletim.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de exibição do log de ações:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Todas as ações relevantes para o boletim devem ser exibidas corretamente no log de ações.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teste de atualização do log de ações:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> O log de ações deve ser atualizado corretamente conforme as ações são realizadas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teste de clique no botão "Registrar avanço": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ao clicar no registrar avanço os dados devem ser registrados.</t>
     </r>
   </si>
 </sst>
@@ -2557,7 +3036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2622,6 +3101,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2680,16 +3160,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2985,8 +3465,8 @@
   </sheetPr>
   <dimension ref="A1:G1164"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A88" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2997,32 +3477,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="19">
@@ -3036,8 +3516,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="19">
         <v>2</v>
       </c>
@@ -3049,8 +3529,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="19">
         <v>3</v>
       </c>
@@ -3062,8 +3542,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="19">
         <v>4</v>
       </c>
@@ -3075,8 +3555,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="19">
         <v>5</v>
       </c>
@@ -3088,10 +3568,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+      <c r="A8" s="41">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3">
@@ -3105,8 +3585,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -3118,10 +3598,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+      <c r="A10" s="41">
         <v>3</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="19">
@@ -3135,8 +3615,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="19">
         <v>2</v>
       </c>
@@ -3148,8 +3628,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="19">
         <v>3</v>
       </c>
@@ -3161,8 +3641,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="19">
         <v>4</v>
       </c>
@@ -3174,8 +3654,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="19">
         <v>5</v>
       </c>
@@ -3187,8 +3667,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="19">
         <v>6</v>
       </c>
@@ -3200,8 +3680,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="19">
         <v>7</v>
       </c>
@@ -3213,8 +3693,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="19">
         <v>8</v>
       </c>
@@ -3226,8 +3706,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="19">
         <v>9</v>
       </c>
@@ -3239,10 +3719,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>4</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="6">
@@ -3256,8 +3736,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="6">
         <v>2</v>
       </c>
@@ -3269,8 +3749,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="6">
         <v>3</v>
       </c>
@@ -3282,8 +3762,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="6">
         <v>4</v>
       </c>
@@ -3295,8 +3775,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="6">
         <v>5</v>
       </c>
@@ -3308,8 +3788,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="6">
         <v>6</v>
       </c>
@@ -3321,8 +3801,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="6">
         <v>7</v>
       </c>
@@ -3334,8 +3814,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="6">
         <v>7</v>
       </c>
@@ -3347,8 +3827,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="6">
         <v>8</v>
       </c>
@@ -3360,8 +3840,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="6">
         <v>9</v>
       </c>
@@ -3373,10 +3853,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40">
+      <c r="A29" s="41">
         <v>5</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="19">
@@ -3390,8 +3870,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="19">
         <v>2</v>
       </c>
@@ -3403,8 +3883,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="19">
         <v>3</v>
       </c>
@@ -3416,8 +3896,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="19">
         <v>4</v>
       </c>
@@ -3429,8 +3909,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="19">
         <v>5</v>
       </c>
@@ -3442,8 +3922,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="19">
         <v>6</v>
       </c>
@@ -3455,8 +3935,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="19">
         <v>7</v>
       </c>
@@ -3468,10 +3948,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
-        <v>6</v>
-      </c>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="31">
+        <v>6</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="6">
@@ -3485,8 +3965,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="6">
         <v>2</v>
       </c>
@@ -3498,8 +3978,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="6">
         <v>3</v>
       </c>
@@ -3511,8 +3991,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="6">
         <v>4</v>
       </c>
@@ -3524,8 +4004,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="6">
         <v>5</v>
       </c>
@@ -3537,8 +4017,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="6">
         <v>6</v>
       </c>
@@ -3551,8 +4031,8 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="6">
         <v>7</v>
       </c>
@@ -3565,10 +4045,10 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
+      <c r="A43" s="41">
         <v>7</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="19">
@@ -3582,8 +4062,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="19">
         <v>2</v>
       </c>
@@ -3595,8 +4075,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="19">
         <v>3</v>
       </c>
@@ -3608,8 +4088,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="19">
         <v>4</v>
       </c>
@@ -3621,8 +4101,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="19">
         <v>5</v>
       </c>
@@ -3634,8 +4114,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="19">
         <v>6</v>
       </c>
@@ -3647,8 +4127,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="19">
         <v>7</v>
       </c>
@@ -3660,8 +4140,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="19">
         <v>8</v>
       </c>
@@ -3673,10 +4153,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+      <c r="A51" s="31">
         <v>8</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="6">
@@ -3690,8 +4170,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="6">
         <v>2</v>
       </c>
@@ -3703,8 +4183,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="6">
         <v>3</v>
       </c>
@@ -3716,8 +4196,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="6">
         <v>4</v>
       </c>
@@ -3729,8 +4209,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="6">
         <v>5</v>
       </c>
@@ -3742,8 +4222,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="6">
         <v>6</v>
       </c>
@@ -3755,8 +4235,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="6">
         <v>7</v>
       </c>
@@ -3768,8 +4248,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="6">
         <v>8</v>
       </c>
@@ -3781,10 +4261,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="40">
+      <c r="A59" s="41">
         <v>9</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="19">
@@ -3798,8 +4278,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="19">
         <v>2</v>
       </c>
@@ -3811,8 +4291,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="19">
         <v>3</v>
       </c>
@@ -3824,8 +4304,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="19">
         <v>4</v>
       </c>
@@ -3837,8 +4317,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="19">
         <v>5</v>
       </c>
@@ -3850,8 +4330,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="19">
         <v>6</v>
       </c>
@@ -3863,8 +4343,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="19">
         <v>7</v>
       </c>
@@ -3876,8 +4356,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="19">
         <v>8</v>
       </c>
@@ -3889,8 +4369,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="19">
         <v>9</v>
       </c>
@@ -3902,10 +4382,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
+      <c r="A68" s="31">
         <v>10</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="5">
@@ -3919,8 +4399,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5">
         <v>2</v>
       </c>
@@ -3932,8 +4412,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="5">
         <v>3</v>
       </c>
@@ -3945,8 +4425,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="34"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="5">
         <v>4</v>
       </c>
@@ -3958,8 +4438,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="5">
         <v>5</v>
       </c>
@@ -3971,8 +4451,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="5">
         <v>6</v>
       </c>
@@ -3984,8 +4464,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="5">
         <v>7</v>
       </c>
@@ -3997,8 +4477,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="5">
         <v>8</v>
       </c>
@@ -4010,10 +4490,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="36">
+      <c r="A76" s="37">
         <v>11</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="19">
@@ -4027,8 +4507,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="19">
         <v>2</v>
       </c>
@@ -4040,8 +4520,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="19">
         <v>3</v>
       </c>
@@ -4053,8 +4533,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="19">
         <v>4</v>
       </c>
@@ -4066,8 +4546,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="36"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="19">
         <v>5</v>
       </c>
@@ -4079,8 +4559,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="19">
         <v>6</v>
       </c>
@@ -4092,8 +4572,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="19">
         <v>7</v>
       </c>
@@ -4105,8 +4585,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="19">
         <v>8</v>
       </c>
@@ -4118,8 +4598,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="19">
         <v>9</v>
       </c>
@@ -4131,8 +4611,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="19">
         <v>10</v>
       </c>
@@ -4144,8 +4624,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="19">
         <v>12</v>
       </c>
@@ -4157,8 +4637,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="19">
         <v>12</v>
       </c>
@@ -4170,8 +4650,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="19">
         <v>13</v>
       </c>
@@ -4183,10 +4663,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="37">
+      <c r="A89" s="38">
         <v>13</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="39" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="14">
@@ -4200,8 +4680,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="14">
         <v>2</v>
       </c>
@@ -4213,8 +4693,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="14">
         <v>3</v>
       </c>
@@ -4226,8 +4706,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="14">
         <v>4</v>
       </c>
@@ -4239,8 +4719,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="14">
         <v>5</v>
       </c>
@@ -4252,8 +4732,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="14">
         <v>6</v>
       </c>
@@ -4265,8 +4745,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="14">
         <v>7</v>
       </c>
@@ -4278,8 +4758,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="14">
         <v>8</v>
       </c>
@@ -4291,8 +4771,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="38"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="14">
         <v>9</v>
       </c>
@@ -4304,8 +4784,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
-      <c r="B98" s="38"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="14">
         <v>10</v>
       </c>
@@ -4317,8 +4797,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="38"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="14">
         <v>11</v>
       </c>
@@ -4330,8 +4810,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="14">
         <v>12</v>
       </c>
@@ -4343,8 +4823,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="14">
         <v>13</v>
       </c>
@@ -4356,10 +4836,10 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="36">
+      <c r="A102" s="37">
         <v>12</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="33" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="19">
@@ -4373,8 +4853,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="36"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="19">
         <v>2</v>
       </c>
@@ -4386,8 +4866,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="36"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="19">
         <v>3</v>
       </c>
@@ -4399,8 +4879,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="36"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="19">
         <v>4</v>
       </c>
@@ -4412,8 +4892,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="19">
         <v>5</v>
       </c>
@@ -4425,8 +4905,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="19">
         <v>6</v>
       </c>
@@ -4438,8 +4918,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="36"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="19">
         <v>7</v>
       </c>
@@ -4451,8 +4931,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="36"/>
-      <c r="B109" s="32"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="19">
         <v>8</v>
       </c>
@@ -4464,8 +4944,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="36"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="19">
         <v>9</v>
       </c>
@@ -4477,8 +4957,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="36"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="19">
         <v>10</v>
       </c>
@@ -4490,8 +4970,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="36"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="19">
         <v>11</v>
       </c>
@@ -4503,8 +4983,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="36"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="19">
         <v>12</v>
       </c>
@@ -4516,10 +4996,10 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="30">
+      <c r="A114" s="31">
         <v>14</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="24">
@@ -4533,8 +5013,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="30"/>
-      <c r="B115" s="35"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="24">
         <v>2</v>
       </c>
@@ -4546,8 +5026,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="30"/>
-      <c r="B116" s="35"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="24">
         <v>3</v>
       </c>
@@ -4559,8 +5039,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="30"/>
-      <c r="B117" s="35"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="24">
         <v>4</v>
       </c>
@@ -4572,8 +5052,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="30"/>
-      <c r="B118" s="35"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="24">
         <v>5</v>
       </c>
@@ -4585,8 +5065,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="30"/>
-      <c r="B119" s="35"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="24">
         <v>6</v>
       </c>
@@ -4599,7 +5079,7 @@
     </row>
     <row r="120" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="35"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="24">
         <v>7</v>
       </c>
@@ -4611,8 +5091,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="30"/>
-      <c r="B121" s="35"/>
+      <c r="A121" s="31"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="24">
         <v>8</v>
       </c>
@@ -4624,8 +5104,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="30"/>
-      <c r="B122" s="35"/>
+      <c r="A122" s="31"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="24">
         <v>9</v>
       </c>
@@ -4637,8 +5117,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="30"/>
-      <c r="B123" s="35"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="24">
         <v>10</v>
       </c>
@@ -4650,8 +5130,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="30"/>
-      <c r="B124" s="35"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="24">
         <v>11</v>
       </c>
@@ -4663,8 +5143,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="30"/>
-      <c r="B125" s="35"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="24">
         <v>12</v>
       </c>
@@ -4676,8 +5156,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="30"/>
-      <c r="B126" s="32" t="s">
+      <c r="A126" s="31"/>
+      <c r="B126" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C126" s="19">
@@ -4691,8 +5171,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="30"/>
-      <c r="B127" s="32"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="19">
         <v>2</v>
       </c>
@@ -4704,8 +5184,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="30"/>
-      <c r="B128" s="32"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="19">
         <v>3</v>
       </c>
@@ -4717,8 +5197,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="30"/>
-      <c r="B129" s="32"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="19">
         <v>4</v>
       </c>
@@ -4730,8 +5210,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="30"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="19">
         <v>5</v>
       </c>
@@ -4743,8 +5223,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="30"/>
-      <c r="B131" s="32"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="19">
         <v>6</v>
       </c>
@@ -4756,10 +5236,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="30">
+      <c r="A132" s="31">
         <v>16</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="35" t="s">
         <v>126</v>
       </c>
       <c r="C132" s="6">
@@ -4773,8 +5253,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="30"/>
-      <c r="B133" s="34"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="35"/>
       <c r="C133" s="6">
         <v>2</v>
       </c>
@@ -4786,8 +5266,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="30"/>
-      <c r="B134" s="34"/>
+      <c r="A134" s="31"/>
+      <c r="B134" s="35"/>
       <c r="C134" s="6">
         <v>3</v>
       </c>
@@ -4799,8 +5279,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="30"/>
-      <c r="B135" s="34"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="35"/>
       <c r="C135" s="6">
         <v>4</v>
       </c>
@@ -4812,8 +5292,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="30"/>
-      <c r="B136" s="34"/>
+      <c r="A136" s="31"/>
+      <c r="B136" s="35"/>
       <c r="C136" s="6">
         <v>5</v>
       </c>
@@ -4825,8 +5305,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="30"/>
-      <c r="B137" s="34"/>
+      <c r="A137" s="31"/>
+      <c r="B137" s="35"/>
       <c r="C137" s="6">
         <v>6</v>
       </c>
@@ -4838,10 +5318,10 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="30">
+      <c r="A138" s="31">
         <v>17</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C138" s="19">
@@ -4855,8 +5335,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="30"/>
-      <c r="B139" s="32"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="19">
         <v>2</v>
       </c>
@@ -4868,8 +5348,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="30"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="19">
         <v>3</v>
       </c>
@@ -4881,8 +5361,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="30"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="31"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="19">
         <v>4</v>
       </c>
@@ -4894,8 +5374,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="30"/>
-      <c r="B142" s="32"/>
+      <c r="A142" s="31"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="19">
         <v>5</v>
       </c>
@@ -4907,8 +5387,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="30"/>
-      <c r="B143" s="32"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="19">
         <v>6</v>
       </c>
@@ -4920,8 +5400,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="30"/>
-      <c r="B144" s="32"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="19">
         <v>7</v>
       </c>
@@ -4933,8 +5413,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="30"/>
-      <c r="B145" s="32"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="19">
         <v>8</v>
       </c>
@@ -4946,10 +5426,10 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="30">
+      <c r="A146" s="31">
         <v>18</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="34" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="6">
@@ -4963,8 +5443,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="30"/>
-      <c r="B147" s="34"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="35"/>
       <c r="C147" s="6">
         <v>2</v>
       </c>
@@ -4976,8 +5456,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="30"/>
-      <c r="B148" s="34"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="35"/>
       <c r="C148" s="6">
         <v>3</v>
       </c>
@@ -4989,8 +5469,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="30"/>
-      <c r="B149" s="34"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="35"/>
       <c r="C149" s="6">
         <v>4</v>
       </c>
@@ -5002,8 +5482,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="30"/>
-      <c r="B150" s="34"/>
+      <c r="A150" s="31"/>
+      <c r="B150" s="35"/>
       <c r="C150" s="6">
         <v>5</v>
       </c>
@@ -5015,10 +5495,10 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="30">
+      <c r="A151" s="31">
         <v>19</v>
       </c>
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C151" s="19">
@@ -5032,8 +5512,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="30"/>
-      <c r="B152" s="32"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="19">
         <v>2</v>
       </c>
@@ -5045,8 +5525,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="30"/>
-      <c r="B153" s="32"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="19">
         <v>3</v>
       </c>
@@ -5058,8 +5538,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="30"/>
-      <c r="B154" s="32"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="19">
         <v>4</v>
       </c>
@@ -5071,8 +5551,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="30"/>
-      <c r="B155" s="32"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="19">
         <v>5</v>
       </c>
@@ -5109,199 +5589,199 @@
     </row>
     <row r="162" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
-      <c r="E162" s="28"/>
+      <c r="E162" s="29"/>
     </row>
     <row r="163" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
-      <c r="E163" s="28"/>
+      <c r="E163" s="29"/>
     </row>
     <row r="164" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
-      <c r="E164" s="28"/>
+      <c r="E164" s="29"/>
     </row>
     <row r="165" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
-      <c r="E165" s="28"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
-      <c r="E166" s="28"/>
+      <c r="E166" s="29"/>
     </row>
     <row r="167" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
-      <c r="E167" s="28"/>
+      <c r="E167" s="29"/>
     </row>
     <row r="168" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
-      <c r="E168" s="28"/>
+      <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
-      <c r="E169" s="28"/>
+      <c r="E169" s="29"/>
     </row>
     <row r="170" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
-      <c r="E170" s="28"/>
+      <c r="E170" s="29"/>
     </row>
     <row r="171" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
-      <c r="E171" s="28"/>
+      <c r="E171" s="29"/>
     </row>
     <row r="172" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
-      <c r="E172" s="28"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="173" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
-      <c r="E173" s="29"/>
+      <c r="E173" s="30"/>
     </row>
     <row r="174" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
-      <c r="E174" s="29"/>
+      <c r="E174" s="30"/>
     </row>
     <row r="175" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
-      <c r="E175" s="29"/>
+      <c r="E175" s="30"/>
     </row>
     <row r="176" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
-      <c r="E176" s="29"/>
+      <c r="E176" s="30"/>
     </row>
     <row r="177" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
-      <c r="E177" s="29"/>
+      <c r="E177" s="30"/>
     </row>
     <row r="178" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
-      <c r="E178" s="29"/>
+      <c r="E178" s="30"/>
     </row>
     <row r="179" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
-      <c r="E179" s="29"/>
+      <c r="E179" s="30"/>
     </row>
     <row r="180" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
-      <c r="E180" s="29"/>
+      <c r="E180" s="30"/>
     </row>
     <row r="181" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
-      <c r="E181" s="29"/>
+      <c r="E181" s="30"/>
     </row>
     <row r="182" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
-      <c r="E182" s="29"/>
+      <c r="E182" s="30"/>
     </row>
     <row r="183" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
-      <c r="E183" s="29"/>
+      <c r="E183" s="30"/>
     </row>
     <row r="184" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
-      <c r="E184" s="29"/>
+      <c r="E184" s="30"/>
     </row>
     <row r="185" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
-      <c r="E185" s="29"/>
+      <c r="E185" s="30"/>
     </row>
     <row r="186" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
-      <c r="E186" s="29"/>
+      <c r="E186" s="30"/>
     </row>
     <row r="187" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
-      <c r="E187" s="29"/>
+      <c r="E187" s="30"/>
     </row>
     <row r="188" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
-      <c r="E188" s="29"/>
+      <c r="E188" s="30"/>
     </row>
     <row r="189" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
-      <c r="E189" s="29"/>
+      <c r="E189" s="30"/>
     </row>
     <row r="190" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
-      <c r="E190" s="29"/>
+      <c r="E190" s="30"/>
     </row>
     <row r="191" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
-      <c r="E191" s="29"/>
+      <c r="E191" s="30"/>
     </row>
     <row r="192" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
-      <c r="E192" s="29"/>
+      <c r="E192" s="30"/>
     </row>
     <row r="193" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
-      <c r="E193" s="29"/>
+      <c r="E193" s="30"/>
     </row>
     <row r="194" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
-      <c r="E194" s="29"/>
+      <c r="E194" s="30"/>
     </row>
     <row r="195" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
-      <c r="E195" s="29"/>
+      <c r="E195" s="30"/>
     </row>
     <row r="196" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
-      <c r="E196" s="29"/>
+      <c r="E196" s="30"/>
     </row>
     <row r="197" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
-      <c r="E197" s="29"/>
+      <c r="E197" s="30"/>
     </row>
     <row r="198" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
-      <c r="E198" s="28"/>
+      <c r="E198" s="29"/>
     </row>
     <row r="199" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
-      <c r="E199" s="28"/>
+      <c r="E199" s="29"/>
     </row>
     <row r="200" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
-      <c r="E200" s="28"/>
+      <c r="E200" s="29"/>
     </row>
     <row r="201" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
-      <c r="E201" s="28"/>
+      <c r="E201" s="29"/>
     </row>
     <row r="202" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
-      <c r="E202" s="28"/>
+      <c r="E202" s="29"/>
     </row>
     <row r="203" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
-      <c r="E203" s="28"/>
+      <c r="E203" s="29"/>
     </row>
     <row r="204" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
-      <c r="E204" s="28"/>
+      <c r="E204" s="29"/>
     </row>
     <row r="205" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
-      <c r="E205" s="28"/>
+      <c r="E205" s="29"/>
     </row>
     <row r="206" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
-      <c r="E206" s="28"/>
+      <c r="E206" s="29"/>
     </row>
     <row r="207" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
-      <c r="E207" s="28"/>
+      <c r="E207" s="29"/>
     </row>
     <row r="208" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
-      <c r="E208" s="28"/>
+      <c r="E208" s="29"/>
     </row>
     <row r="209" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
-      <c r="E209" s="28"/>
+      <c r="E209" s="29"/>
     </row>
     <row r="210" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
-      <c r="E210" s="28"/>
+      <c r="E210" s="29"/>
     </row>
     <row r="211" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
@@ -9092,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9105,32 +9585,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6">
@@ -9144,8 +9624,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
@@ -9157,8 +9637,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="6">
         <v>3</v>
       </c>
@@ -9170,8 +9650,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="6">
         <v>4</v>
       </c>
@@ -9183,8 +9663,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="6">
         <v>5</v>
       </c>
@@ -9196,10 +9676,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="6">
@@ -9213,8 +9693,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="6">
         <v>2</v>
       </c>
@@ -9226,8 +9706,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="6">
         <v>3</v>
       </c>
@@ -9239,8 +9719,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="6">
         <v>4</v>
       </c>
@@ -9252,10 +9732,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C12" s="6">
@@ -9269,8 +9749,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="6">
         <v>2</v>
       </c>
@@ -9282,8 +9762,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="6">
         <v>3</v>
       </c>
@@ -9295,8 +9775,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="6">
         <v>4</v>
       </c>
@@ -9308,10 +9788,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>4</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="6">
@@ -9325,8 +9805,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="6">
         <v>2</v>
       </c>
@@ -9338,8 +9818,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="6">
         <v>3</v>
       </c>
@@ -9351,8 +9831,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="6">
         <v>4</v>
       </c>
@@ -9364,8 +9844,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="6">
         <v>5</v>
       </c>
@@ -9377,10 +9857,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>5</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>157</v>
       </c>
       <c r="C21" s="6">
@@ -9394,8 +9874,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="6">
         <v>2</v>
       </c>
@@ -9407,8 +9887,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="6">
         <v>3</v>
       </c>
@@ -9420,8 +9900,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="6">
         <v>4</v>
       </c>
@@ -9433,8 +9913,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="6">
         <v>5</v>
       </c>
@@ -9446,16 +9926,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
-        <v>5</v>
-      </c>
-      <c r="B26" s="29" t="s">
+      <c r="A26" s="31">
+        <v>6</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>163</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -9463,12 +9943,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="28" t="s">
         <v>165</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -9476,12 +9956,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="28" t="s">
         <v>166</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -9489,12 +9969,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="28" t="s">
         <v>167</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -9502,12 +9982,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="6">
         <v>5</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="28" t="s">
         <v>168</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -9515,12 +9995,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="6">
         <v>6</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -9528,12 +10008,12 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="6">
         <v>7</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="28" t="s">
         <v>170</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -9541,12 +10021,12 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="6">
         <v>8</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="28" t="s">
         <v>171</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -9582,4 +10062,709 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5EFADB-3276-4FDB-BFC6-0820002A2F15}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="233.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>2</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="6">
+        <v>7</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="6">
+        <v>8</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="6">
+        <v>9</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="31">
+        <v>3</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="6">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="31">
+        <v>5</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="6">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="31">
+        <v>6</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="6">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="6">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="31">
+        <v>7</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="6">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="A26:A30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>